--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="12375" windowHeight="4635"/>
+    <workbookView windowWidth="20925" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>SL NO</t>
+  </si>
   <si>
     <t>VECHILE REG NO</t>
   </si>
@@ -25,9 +31,6 @@
   </si>
   <si>
     <t>ISSUE</t>
-  </si>
-  <si>
-    <t>SL NO</t>
   </si>
   <si>
     <t>KA03MF2623</t>
@@ -52,24 +55,368 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -77,18 +424,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -371,45 +1013,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="11.1428571428571"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -417,46 +1063,61 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>DATE</t>
-  </si>
-  <si>
-    <t>SL NO</t>
   </si>
   <si>
     <t>VECHILE REG NO</t>
@@ -56,13 +53,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,37 +68,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,108 +189,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +221,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,65 +426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,151 +453,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,21 +1009,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.1428571428571"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="1" max="1" width="12.2857142857143" style="1"/>
+    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,16 +1036,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>44732</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1063,25 +1050,19 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>44732</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>DATE</t>
   </si>
@@ -30,6 +30,9 @@
     <t>ISSUE</t>
   </si>
   <si>
+    <t>STATUS</t>
+  </si>
+  <si>
     <t>KA03MF2623</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
     <t>PMS</t>
   </si>
   <si>
+    <t>DONE</t>
+  </si>
+  <si>
     <t>KA03MY0882</t>
   </si>
   <si>
@@ -46,6 +52,96 @@
   </si>
   <si>
     <t>BODYSHOP</t>
+  </si>
+  <si>
+    <t>KA03MQ8210</t>
+  </si>
+  <si>
+    <t>I20</t>
+  </si>
+  <si>
+    <t>WAITING FOR SPARES</t>
+  </si>
+  <si>
+    <t>KA60S8595</t>
+  </si>
+  <si>
+    <t>POLO</t>
+  </si>
+  <si>
+    <t>AP02AE2979</t>
+  </si>
+  <si>
+    <t>KA03MC1867</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS </t>
+  </si>
+  <si>
+    <t>WORK IN PROGRESS</t>
+  </si>
+  <si>
+    <t>KA53Z1134</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WORK DONE</t>
+  </si>
+  <si>
+    <t>KA04MF1245</t>
+  </si>
+  <si>
+    <t>ALTO</t>
+  </si>
+  <si>
+    <t>WORK DONE</t>
+  </si>
+  <si>
+    <t>KA51MC1317</t>
+  </si>
+  <si>
+    <t>SPARK</t>
+  </si>
+  <si>
+    <t>POWERSTEERING</t>
+  </si>
+  <si>
+    <t>PART NOTAVAILABLE</t>
+  </si>
+  <si>
+    <t>KA03MD9676</t>
+  </si>
+  <si>
+    <t>ESTEEM</t>
+  </si>
+  <si>
+    <t>GLASS CHANGE</t>
+  </si>
+  <si>
+    <t>KA03NG3263</t>
+  </si>
+  <si>
+    <t>ALTROZ</t>
+  </si>
+  <si>
+    <t>BODY SHOP</t>
+  </si>
+  <si>
+    <t>INSURANCE APPROVAL</t>
+  </si>
+  <si>
+    <t>KA51ME7857</t>
+  </si>
+  <si>
+    <t>TN07BJ4511</t>
+  </si>
+  <si>
+    <t>EECO</t>
+  </si>
+  <si>
+    <t>GENERAL CHECKUP</t>
   </si>
 </sst>
 </file>
@@ -53,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
@@ -68,37 +164,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,7 +196,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,14 +213,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,36 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -189,6 +241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -198,7 +257,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +272,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,25 +317,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,157 +485,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,56 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -512,151 +558,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,21 +1105,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.2857142857143" style="1"/>
     <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="21.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="22.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,33 +1133,229 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>44732</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>44732</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -149,11 +149,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,14 +165,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,45 +242,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -241,6 +249,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -248,61 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +522,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +585,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,177 +608,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>DATE</t>
   </si>
@@ -87,7 +87,7 @@
     <t>KA53Z1134</t>
   </si>
   <si>
-    <t xml:space="preserve"> WORK DONE</t>
+    <t xml:space="preserve"> WORK DONE DELIVERED</t>
   </si>
   <si>
     <t>KA04MF1245</t>
@@ -96,7 +96,7 @@
     <t>ALTO</t>
   </si>
   <si>
-    <t>WORK DONE</t>
+    <t>WORK DONE DELIVERED</t>
   </si>
   <si>
     <t>KA51MC1317</t>
@@ -108,7 +108,7 @@
     <t>POWERSTEERING</t>
   </si>
   <si>
-    <t>PART NOTAVAILABLE</t>
+    <t>WORK DON DELIVERED</t>
   </si>
   <si>
     <t>KA03MD9676</t>
@@ -142,6 +142,99 @@
   </si>
   <si>
     <t>GENERAL CHECKUP</t>
+  </si>
+  <si>
+    <t>KA03MW0048</t>
+  </si>
+  <si>
+    <t>ECOSPORT</t>
+  </si>
+  <si>
+    <t>GRNERAL CHECKUP</t>
+  </si>
+  <si>
+    <t>KA01MQ6580</t>
+  </si>
+  <si>
+    <t>KEID</t>
+  </si>
+  <si>
+    <t>SILENCER WELDING</t>
+  </si>
+  <si>
+    <t>TS12EA1664</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GRAND SPARK</t>
+  </si>
+  <si>
+    <t>KA34M3345</t>
+  </si>
+  <si>
+    <t>ACCORD</t>
+  </si>
+  <si>
+    <t>SCANNING</t>
+  </si>
+  <si>
+    <t>KA03MS0656</t>
+  </si>
+  <si>
+    <t>ALTO 800</t>
+  </si>
+  <si>
+    <t>KA53P4961</t>
+  </si>
+  <si>
+    <t>SWIFT ZXI</t>
+  </si>
+  <si>
+    <t>KA03MF3160</t>
+  </si>
+  <si>
+    <t>CLUTCH PROBLEM</t>
+  </si>
+  <si>
+    <t>KA03MW5716</t>
+  </si>
+  <si>
+    <t>MOBILIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TS07EX3705 </t>
+  </si>
+  <si>
+    <t>CELERIO</t>
+  </si>
+  <si>
+    <t>AC PROBLEM</t>
+  </si>
+  <si>
+    <t>KA01MM7041</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>WIPER BLADE CHANGE</t>
+  </si>
+  <si>
+    <t>JH09Q9967</t>
+  </si>
+  <si>
+    <t>HYUNDAI I10</t>
+  </si>
+  <si>
+    <t>SILENCER FITTING</t>
+  </si>
+  <si>
+    <t>KA 01 MR 7450</t>
+  </si>
+  <si>
+    <t>NEXON</t>
+  </si>
+  <si>
+    <t>HANDLE CHANGE</t>
   </si>
 </sst>
 </file>
@@ -149,11 +242,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,6 +261,37 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,37 +304,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -219,7 +312,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,14 +358,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,22 +388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,13 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,79 +410,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,37 +578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,61 +590,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +601,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +624,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,11 +652,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,178 +684,174 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1105,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1356,6 +1449,210 @@
       </c>
       <c r="E14" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>DATE</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>HANDLE CHANGE</t>
+  </si>
+  <si>
+    <t>creta</t>
   </si>
 </sst>
 </file>
@@ -242,11 +245,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -258,14 +261,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,14 +292,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -312,21 +307,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,14 +339,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,27 +390,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -410,187 +413,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,15 +604,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -652,17 +646,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,13 +670,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,157 +693,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,10 +1201,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1652,6 +1655,23 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
         <v>30</v>
       </c>
     </row>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>DATE</t>
   </si>
@@ -237,7 +237,46 @@
     <t>HANDLE CHANGE</t>
   </si>
   <si>
-    <t>creta</t>
+    <t>KA 04 MC 5899</t>
+  </si>
+  <si>
+    <t>FISTEA</t>
+  </si>
+  <si>
+    <t>RUNNING REPAIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA 53 MD 2827  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWIFT </t>
+  </si>
+  <si>
+    <t>WIPER PIPE CHANGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA 53 Z 9119 </t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>HEAD LIGHT PROBLEM</t>
+  </si>
+  <si>
+    <t>KA 53 Z 4610</t>
+  </si>
+  <si>
+    <t>MANZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC REFLLING </t>
+  </si>
+  <si>
+    <t>KA 03 NC 6480</t>
+  </si>
+  <si>
+    <t>XUV 500</t>
   </si>
 </sst>
 </file>
@@ -246,10 +285,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -261,14 +300,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +331,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -307,7 +354,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +405,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -345,28 +420,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -376,7 +429,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,20 +442,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,13 +452,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,19 +560,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,145 +626,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,6 +643,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -649,6 +703,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -670,30 +733,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -707,154 +746,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,10 +1240,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1660,18 +1699,86 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1">
-        <v>44736</v>
+        <v>44737</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
         <v>30</v>
       </c>
     </row>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
   <si>
     <t>DATE</t>
   </si>
@@ -33,6 +33,9 @@
     <t>STATUS</t>
   </si>
   <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
     <t>KA03MF2623</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>POWERSTEERING</t>
   </si>
   <si>
-    <t>WORK DON DELIVERED</t>
-  </si>
-  <si>
     <t>KA03MD9676</t>
   </si>
   <si>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>XUV 500</t>
+  </si>
+  <si>
+    <t>KA 53 C 6013</t>
+  </si>
+  <si>
+    <t>SWIFT</t>
+  </si>
+  <si>
+    <t>BRAKE DISC &amp; PAD CHANGE</t>
+  </si>
+  <si>
+    <t>CASH           4290</t>
   </si>
 </sst>
 </file>
@@ -285,10 +297,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -299,8 +311,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,30 +374,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,20 +382,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,13 +411,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -420,6 +419,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -429,15 +442,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,181 +470,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,6 +655,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,15 +708,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -696,15 +719,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,165 +749,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,193 +1255,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" style="1"/>
+    <col min="1" max="1" width="12.2857142857143" style="2"/>
     <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="21.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="22.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44732</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>44732</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>44733</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
         <v>44733</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>44733</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>44733</v>
-      </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>44733</v>
       </c>
       <c r="B11" t="s">
@@ -1439,11 +1458,11 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>44733</v>
       </c>
       <c r="B12" t="s">
@@ -1460,14 +1479,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>44733</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1477,7 +1496,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>44733</v>
       </c>
       <c r="B14" t="s">
@@ -1490,11 +1509,11 @@
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>44734</v>
       </c>
       <c r="B15" t="s">
@@ -1507,11 +1526,11 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>44734</v>
       </c>
       <c r="B16" t="s">
@@ -1524,11 +1543,11 @@
         <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>44734</v>
       </c>
       <c r="B17" t="s">
@@ -1538,14 +1557,14 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>44734</v>
       </c>
       <c r="B18" t="s">
@@ -1558,11 +1577,11 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>44734</v>
       </c>
       <c r="B19" t="s">
@@ -1572,14 +1591,14 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>44735</v>
       </c>
       <c r="B20" t="s">
@@ -1589,31 +1608,31 @@
         <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>44735</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>44735</v>
       </c>
       <c r="B22" t="s">
@@ -1623,14 +1642,14 @@
         <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>44735</v>
       </c>
       <c r="B23" t="s">
@@ -1643,11 +1662,11 @@
         <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>44735</v>
       </c>
       <c r="B24" t="s">
@@ -1660,11 +1679,11 @@
         <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>44735</v>
       </c>
       <c r="B25" t="s">
@@ -1677,11 +1696,11 @@
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>44736</v>
       </c>
       <c r="B26" t="s">
@@ -1694,11 +1713,11 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>44737</v>
       </c>
       <c r="B27" t="s">
@@ -1711,11 +1730,11 @@
         <v>75</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>44737</v>
       </c>
       <c r="B28" t="s">
@@ -1728,11 +1747,11 @@
         <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>44737</v>
       </c>
       <c r="B29" t="s">
@@ -1745,11 +1764,11 @@
         <v>81</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>44737</v>
       </c>
       <c r="B30" t="s">
@@ -1762,11 +1781,11 @@
         <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>44737</v>
       </c>
       <c r="B31" t="s">
@@ -1779,7 +1798,27 @@
         <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2">
+        <v>44738</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
   <si>
     <t>DATE</t>
   </si>
@@ -289,6 +289,27 @@
   </si>
   <si>
     <t>CASH           4290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA 53 Z 3686  </t>
+  </si>
+  <si>
+    <t>EON</t>
+  </si>
+  <si>
+    <t>KA 53 MB 6361</t>
+  </si>
+  <si>
+    <t>ONLINE       100</t>
+  </si>
+  <si>
+    <t>KA 03 MW 2247</t>
+  </si>
+  <si>
+    <t>PUNTO</t>
+  </si>
+  <si>
+    <t>GEAR CABEL PROBLEM</t>
   </si>
 </sst>
 </file>
@@ -296,11 +317,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -311,17 +332,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,21 +349,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,15 +363,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +382,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -392,14 +405,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,8 +431,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +448,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -449,7 +470,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,25 +485,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,7 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,145 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,37 +679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +705,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,16 +743,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -755,151 +765,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -908,7 +929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1819,6 +1840,60 @@
       </c>
       <c r="F32" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>44739</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
   <si>
     <t>DATE</t>
   </si>
@@ -288,9 +288,6 @@
     <t>BRAKE DISC &amp; PAD CHANGE</t>
   </si>
   <si>
-    <t>CASH           4290</t>
-  </si>
-  <si>
     <t xml:space="preserve">KA 53 Z 3686  </t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>KA 53 MB 6361</t>
   </si>
   <si>
-    <t>ONLINE       100</t>
-  </si>
-  <si>
     <t>KA 03 MW 2247</t>
   </si>
   <si>
@@ -310,6 +304,51 @@
   </si>
   <si>
     <t>GEAR CABEL PROBLEM</t>
+  </si>
+  <si>
+    <t>KA 53 MF 7045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I10 </t>
+  </si>
+  <si>
+    <t>DICKY GLASS</t>
+  </si>
+  <si>
+    <t>KA 01 MQ 6837</t>
+  </si>
+  <si>
+    <t>KA 53 ME 8796</t>
+  </si>
+  <si>
+    <t>BALENO</t>
+  </si>
+  <si>
+    <t>KA 03 MY 2196</t>
+  </si>
+  <si>
+    <t>FIGO</t>
+  </si>
+  <si>
+    <t>WAITING FOR APPROVAL</t>
+  </si>
+  <si>
+    <t>KA 03 MP 0851</t>
+  </si>
+  <si>
+    <t>KA 03 MQ 9160</t>
+  </si>
+  <si>
+    <t>KA 01 MW 1170</t>
+  </si>
+  <si>
+    <t>KUSHAQ</t>
+  </si>
+  <si>
+    <t>TN 05 AJ 4603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENERAL CHECKUP </t>
   </si>
 </sst>
 </file>
@@ -317,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
@@ -332,16 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,6 +386,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -363,15 +411,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,7 +434,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -408,19 +456,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,6 +487,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -454,27 +508,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -485,13 +524,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,169 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,17 +718,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,15 +738,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,6 +767,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -759,15 +798,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -776,10 +806,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -788,139 +833,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1276,10 +1315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1822,7 +1861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>44738</v>
       </c>
@@ -1837,9 +1876,6 @@
       </c>
       <c r="E32" t="s">
         <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1847,10 +1883,10 @@
         <v>44739</v>
       </c>
       <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
         <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
@@ -1859,12 +1895,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>44739</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
         <v>65</v>
@@ -1874,9 +1910,6 @@
       </c>
       <c r="E34" t="s">
         <v>27</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1884,16 +1917,152 @@
         <v>44739</v>
       </c>
       <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="1" spans="1:5">
+      <c r="A36" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
   <si>
     <t>DATE</t>
   </si>
@@ -349,6 +349,78 @@
   </si>
   <si>
     <t xml:space="preserve">GENERAL CHECKUP </t>
+  </si>
+  <si>
+    <t>UP 60 AQ 2421</t>
+  </si>
+  <si>
+    <t>KA 01 MM 5591</t>
+  </si>
+  <si>
+    <t>HR 26 CZ 1692</t>
+  </si>
+  <si>
+    <t>KA 03 MN 4133</t>
+  </si>
+  <si>
+    <t>RITZ</t>
+  </si>
+  <si>
+    <t>AP 53 A 5591</t>
+  </si>
+  <si>
+    <t>SAFARI</t>
+  </si>
+  <si>
+    <t>KA 53 MF 6602</t>
+  </si>
+  <si>
+    <t>KA 19 MB 5175</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JAZZ</t>
+  </si>
+  <si>
+    <t>KA 03 MM 8404</t>
+  </si>
+  <si>
+    <t>POWERSTEERING OIL CHANGE</t>
+  </si>
+  <si>
+    <t>KA 03 NC 6907</t>
+  </si>
+  <si>
+    <t>CIAZ</t>
+  </si>
+  <si>
+    <t>BRAKE PAD CHANGE</t>
+  </si>
+  <si>
+    <t>KA 02 MF 8549</t>
+  </si>
+  <si>
+    <t>FABIA</t>
+  </si>
+  <si>
+    <t>KA 53 MB 7888</t>
+  </si>
+  <si>
+    <t>KA 03 AD 4806</t>
+  </si>
+  <si>
+    <t>VERITO</t>
+  </si>
+  <si>
+    <t>RJ 14 VE 4810</t>
+  </si>
+  <si>
+    <t>STROME</t>
+  </si>
+  <si>
+    <t>KA 03 NC 2550</t>
+  </si>
+  <si>
+    <t>BENZ</t>
   </si>
 </sst>
 </file>
@@ -356,11 +428,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -371,9 +443,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,6 +475,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,29 +496,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -427,14 +506,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -456,6 +535,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -465,29 +560,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,61 +596,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,121 +770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,7 +794,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +809,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -759,9 +855,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -781,32 +879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -818,148 +890,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,7 +1040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1315,10 +1387,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2063,6 +2135,283 @@
       </c>
       <c r="E43" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B44" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B48" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>44744</v>
+      </c>
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>44746</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="164">
   <si>
     <t>DATE</t>
   </si>
@@ -421,6 +421,93 @@
   </si>
   <si>
     <t>BENZ</t>
+  </si>
+  <si>
+    <t>KA 04 MN 0454</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POLO</t>
+  </si>
+  <si>
+    <t>PMS                                      WW</t>
+  </si>
+  <si>
+    <t>KA 03 NJ 2544</t>
+  </si>
+  <si>
+    <t>KA 03 M 8439</t>
+  </si>
+  <si>
+    <t>ERTIGA</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>AP 11 AP 5535</t>
+  </si>
+  <si>
+    <t>LINEA</t>
+  </si>
+  <si>
+    <t>KA 03 MR 7655</t>
+  </si>
+  <si>
+    <t>RR                                         WW</t>
+  </si>
+  <si>
+    <t>KA 03 MV 0537</t>
+  </si>
+  <si>
+    <t>KA 06 Z  7323</t>
+  </si>
+  <si>
+    <t>TIAGO</t>
+  </si>
+  <si>
+    <t>KA 01 MR 1346</t>
+  </si>
+  <si>
+    <t>CRYSTA</t>
+  </si>
+  <si>
+    <t>KA 03 MR 5891</t>
+  </si>
+  <si>
+    <t>AP 03 Q 7997</t>
+  </si>
+  <si>
+    <t>PMS RR</t>
+  </si>
+  <si>
+    <t>TS 07 E 5666</t>
+  </si>
+  <si>
+    <t>VENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POLO </t>
+  </si>
+  <si>
+    <t>DELIVERED</t>
+  </si>
+  <si>
+    <t>KA 53 MD 4343</t>
+  </si>
+  <si>
+    <t>KA 03 MT 1738</t>
+  </si>
+  <si>
+    <t>KL 59 V 3473</t>
+  </si>
+  <si>
+    <t>AP 04 BB 6237</t>
+  </si>
+  <si>
+    <t>ETIOS</t>
+  </si>
+  <si>
+    <t>HAND BRAKE CABLE CHANGE</t>
   </si>
 </sst>
 </file>
@@ -428,11 +515,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -440,13 +527,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,9 +538,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,19 +560,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,9 +575,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,6 +592,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -543,23 +629,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +653,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,187 +683,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,11 +877,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,21 +917,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -855,26 +933,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,151 +963,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1387,10 +1474,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2409,9 +2496,361 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>44746</v>
+        <v>44747</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:5">
+      <c r="A62" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="2">
+        <v>44747</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B64" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" t="s">
+        <v>143</v>
+      </c>
+      <c r="D64" t="s">
+        <v>141</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" t="s">
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+      <c r="E67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>44748</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B69" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C72" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+      <c r="E73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B75" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>80</v>
+      </c>
+      <c r="D75" t="s">
+        <v>137</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B77" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>141</v>
+      </c>
+      <c r="E79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="2">
+        <v>44750</v>
+      </c>
+      <c r="B80" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="191">
   <si>
     <t>DATE</t>
   </si>
@@ -508,6 +508,87 @@
   </si>
   <si>
     <t>HAND BRAKE CABLE CHANGE</t>
+  </si>
+  <si>
+    <t>KA 03 NL 9286</t>
+  </si>
+  <si>
+    <t>JEEP</t>
+  </si>
+  <si>
+    <t>KA 03 MS 8035</t>
+  </si>
+  <si>
+    <t>AMAZE</t>
+  </si>
+  <si>
+    <t>6070                CASH</t>
+  </si>
+  <si>
+    <t>KA 01 MR 1124</t>
+  </si>
+  <si>
+    <t>5537                G PAY</t>
+  </si>
+  <si>
+    <t>KA 05 MN 2052</t>
+  </si>
+  <si>
+    <t>2000                G PAY</t>
+  </si>
+  <si>
+    <t>KA 35 M 9916</t>
+  </si>
+  <si>
+    <t>KA 03 NG 8334</t>
+  </si>
+  <si>
+    <t>HEXA</t>
+  </si>
+  <si>
+    <t>CUT BUSH PROBLEM</t>
+  </si>
+  <si>
+    <t>LABOUR CHARGE</t>
+  </si>
+  <si>
+    <t>300                   G PAY</t>
+  </si>
+  <si>
+    <t>KA 03 NC 5774</t>
+  </si>
+  <si>
+    <t>DZIER</t>
+  </si>
+  <si>
+    <t>500                   CASH</t>
+  </si>
+  <si>
+    <t>KA 51 MC 1317</t>
+  </si>
+  <si>
+    <t>R/R</t>
+  </si>
+  <si>
+    <t>2900                 G PAY</t>
+  </si>
+  <si>
+    <t>UP 16 AJ 4271</t>
+  </si>
+  <si>
+    <t>FRONT FOG LAMP ASSY</t>
+  </si>
+  <si>
+    <t>4900                CREDIT</t>
+  </si>
+  <si>
+    <t>32544              CARD</t>
+  </si>
+  <si>
+    <t>WORK DON</t>
+  </si>
+  <si>
+    <t>3923               CREDIT</t>
   </si>
 </sst>
 </file>
@@ -515,11 +596,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -532,22 +613,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -561,7 +627,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,31 +649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -629,6 +680,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -638,7 +704,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,21 +754,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -683,7 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,13 +776,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,37 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,13 +824,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,13 +842,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,19 +878,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,19 +902,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,24 +948,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -874,21 +955,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -934,8 +1000,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,15 +1047,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -977,148 +1058,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1474,10 +1555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1487,7 +1568,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="22.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2851,6 +2932,237 @@
       </c>
       <c r="E80" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>165</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" t="s">
+        <v>167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>176</v>
+      </c>
+      <c r="E86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s">
+        <v>27</v>
+      </c>
+      <c r="F87" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B88" t="s">
+        <v>182</v>
+      </c>
+      <c r="C88" t="s">
+        <v>29</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+      <c r="E88" t="s">
+        <v>27</v>
+      </c>
+      <c r="F88" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>27</v>
+      </c>
+      <c r="F90" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2">
+        <v>44751</v>
+      </c>
+      <c r="B92" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" t="s">
+        <v>27</v>
+      </c>
+      <c r="F92" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="203">
   <si>
     <t>DATE</t>
   </si>
@@ -589,6 +589,42 @@
   </si>
   <si>
     <t>3923               CREDIT</t>
+  </si>
+  <si>
+    <t>KA 51 M 5159</t>
+  </si>
+  <si>
+    <t>ACCENT</t>
+  </si>
+  <si>
+    <t>KA 53 N 7537</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>KA 03 MU 2728</t>
+  </si>
+  <si>
+    <t>NISSON TERRANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR                                        </t>
+  </si>
+  <si>
+    <t>6902                G PAY</t>
+  </si>
+  <si>
+    <t>KA 53 MC 5577</t>
+  </si>
+  <si>
+    <t>OIL LEAKAGE</t>
+  </si>
+  <si>
+    <t>KA 01 ML 4331</t>
+  </si>
+  <si>
+    <t>12274               CARD</t>
   </si>
 </sst>
 </file>
@@ -596,11 +632,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -611,9 +647,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -621,13 +671,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,9 +684,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,28 +762,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -711,22 +770,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,16 +784,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,7 +800,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,7 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,7 +854,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +908,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,31 +944,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,31 +956,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,13 +968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,43 +980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -955,6 +991,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -969,15 +1053,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,47 +1075,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,148 +1094,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1208,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,10 +1591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3163,6 +3199,114 @@
       </c>
       <c r="F92" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B93" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" t="s">
+        <v>192</v>
+      </c>
+      <c r="D93" t="s">
+        <v>36</v>
+      </c>
+      <c r="E93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>141</v>
+      </c>
+      <c r="E94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B95" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95" t="s">
+        <v>197</v>
+      </c>
+      <c r="E95" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96" t="s">
+        <v>80</v>
+      </c>
+      <c r="D96" t="s">
+        <v>36</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B97" t="s">
+        <v>109</v>
+      </c>
+      <c r="C97" t="s">
+        <v>29</v>
+      </c>
+      <c r="D97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2">
+        <v>44753</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="213">
   <si>
     <t>DATE</t>
   </si>
@@ -625,6 +625,36 @@
   </si>
   <si>
     <t>12274               CARD</t>
+  </si>
+  <si>
+    <t>KA 51 MB 1424</t>
+  </si>
+  <si>
+    <t>5338                G PAY</t>
+  </si>
+  <si>
+    <t>AP 16 EG 2748</t>
+  </si>
+  <si>
+    <t>SWIFT VXI</t>
+  </si>
+  <si>
+    <t>KA 51 MB 4125</t>
+  </si>
+  <si>
+    <t>VERNA</t>
+  </si>
+  <si>
+    <t>COOLENT OIL CHANGE</t>
+  </si>
+  <si>
+    <t>500                  G PAY</t>
+  </si>
+  <si>
+    <t>1644                  CARD</t>
+  </si>
+  <si>
+    <t>5649                 G PAY</t>
   </si>
 </sst>
 </file>
@@ -632,11 +662,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -647,30 +677,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,14 +694,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -700,23 +716,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,6 +739,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -761,16 +776,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +830,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,13 +944,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,25 +968,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,43 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,79 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,6 +1021,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1005,24 +1083,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1042,41 +1102,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,148 +1124,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,7 +1274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1591,10 +1621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3307,6 +3337,103 @@
       </c>
       <c r="F98" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>103</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B100" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" t="s">
+        <v>206</v>
+      </c>
+      <c r="D100" t="s">
+        <v>36</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B101" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" t="s">
+        <v>209</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B102" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" t="s">
+        <v>141</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2">
+        <v>44754</v>
+      </c>
+      <c r="B103" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="222">
   <si>
     <t>DATE</t>
   </si>
@@ -655,6 +655,33 @@
   </si>
   <si>
     <t>5649                 G PAY</t>
+  </si>
+  <si>
+    <t>KL 17 F 5995</t>
+  </si>
+  <si>
+    <t>H-CITY</t>
+  </si>
+  <si>
+    <t>AP 03 CG 1685</t>
+  </si>
+  <si>
+    <t>ZEST</t>
+  </si>
+  <si>
+    <t>SENSOR PROBLEM</t>
+  </si>
+  <si>
+    <t>KA 03 MQ 4524</t>
+  </si>
+  <si>
+    <t>VINTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA 53 P 5805 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WORK DONE </t>
   </si>
 </sst>
 </file>
@@ -662,11 +689,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -677,31 +704,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -715,53 +727,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -777,7 +760,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +791,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,7 +827,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -809,13 +843,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,7 +857,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +965,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,31 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,127 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,11 +1051,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,8 +1117,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,30 +1138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1124,148 +1151,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1274,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1621,10 +1648,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3434,6 +3461,111 @@
       </c>
       <c r="F103" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" t="s">
+        <v>36</v>
+      </c>
+      <c r="E105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
+        <v>216</v>
+      </c>
+      <c r="D106" t="s">
+        <v>217</v>
+      </c>
+      <c r="E106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B107" t="s">
+        <v>218</v>
+      </c>
+      <c r="C107" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>88</v>
+      </c>
+      <c r="D108" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" t="s">
+        <v>200</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="229">
   <si>
     <t>DATE</t>
   </si>
@@ -682,6 +682,27 @@
   </si>
   <si>
     <t xml:space="preserve"> WORK DONE </t>
+  </si>
+  <si>
+    <t>KA 53 MC 0067</t>
+  </si>
+  <si>
+    <t>DUSTER</t>
+  </si>
+  <si>
+    <t>6666                G PAY</t>
+  </si>
+  <si>
+    <t>KA 03 MP 2099</t>
+  </si>
+  <si>
+    <t>COMPLAINTS                   WW</t>
+  </si>
+  <si>
+    <t>1062               CREDIT</t>
+  </si>
+  <si>
+    <t>12231              G PAY</t>
   </si>
 </sst>
 </file>
@@ -689,11 +710,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -705,7 +726,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,25 +734,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -743,8 +755,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -759,60 +794,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -827,13 +826,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -842,7 +834,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,55 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,97 +890,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +914,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,7 +944,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,26 +1072,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,26 +1111,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1138,6 +1135,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1151,7 +1172,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1160,139 +1184,136 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1301,7 +1322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1648,10 +1669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F109" sqref="F109"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3566,6 +3587,66 @@
       </c>
       <c r="F109" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B111" t="s">
+        <v>225</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>226</v>
+      </c>
+      <c r="E111" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="2">
+        <v>44756</v>
+      </c>
+      <c r="B112" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" t="s">
+        <v>155</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="243">
   <si>
     <t>DATE</t>
   </si>
@@ -703,6 +703,48 @@
   </si>
   <si>
     <t>12231              G PAY</t>
+  </si>
+  <si>
+    <t>7000               CASH</t>
+  </si>
+  <si>
+    <t>KA 04 MR 2072</t>
+  </si>
+  <si>
+    <t>P W SWITCH CHANGE</t>
+  </si>
+  <si>
+    <t>2000+2440      CARD</t>
+  </si>
+  <si>
+    <t>KA 03 MP 4973</t>
+  </si>
+  <si>
+    <t>WORK DONE</t>
+  </si>
+  <si>
+    <t>KA 05 MP 4915</t>
+  </si>
+  <si>
+    <t>KA 02 MJ 1833</t>
+  </si>
+  <si>
+    <t>10694               G PAY</t>
+  </si>
+  <si>
+    <t>TN 45 AU 6061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIGO </t>
+  </si>
+  <si>
+    <t>8370                 G PAY</t>
+  </si>
+  <si>
+    <t>AP 39 NH 7011</t>
+  </si>
+  <si>
+    <t>54928    INSURANCE</t>
   </si>
 </sst>
 </file>
@@ -732,9 +774,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,15 +805,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +829,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,28 +881,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -841,7 +890,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,13 +910,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -878,7 +920,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,115 +992,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1016,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,13 +1052,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,13 +1088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,15 +1153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1131,6 +1164,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,148 +1214,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1669,10 +1711,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3647,6 +3689,140 @@
       </c>
       <c r="F112" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B113" t="s">
+        <v>205</v>
+      </c>
+      <c r="C113" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" t="s">
+        <v>36</v>
+      </c>
+      <c r="E113" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B114" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B115" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" t="s">
+        <v>101</v>
+      </c>
+      <c r="D115" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="2">
+        <v>44757</v>
+      </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
+      <c r="C116" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" t="s">
+        <v>226</v>
+      </c>
+      <c r="E116" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" t="s">
+        <v>103</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B118" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" t="s">
+        <v>141</v>
+      </c>
+      <c r="E118" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B119" t="s">
+        <v>241</v>
+      </c>
+      <c r="C119" t="s">
+        <v>117</v>
+      </c>
+      <c r="D119" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="253">
   <si>
     <t>DATE</t>
   </si>
@@ -745,6 +745,36 @@
   </si>
   <si>
     <t>54928    INSURANCE</t>
+  </si>
+  <si>
+    <t>MH 46 X 5592</t>
+  </si>
+  <si>
+    <t>SUPERB</t>
+  </si>
+  <si>
+    <t>KA 03 NG 0294</t>
+  </si>
+  <si>
+    <t>BEARING PROBLEM</t>
+  </si>
+  <si>
+    <t>2308                 CARD</t>
+  </si>
+  <si>
+    <t>KA 01 MN 7775</t>
+  </si>
+  <si>
+    <t>DATSUN</t>
+  </si>
+  <si>
+    <t>KA 53 MC 3584</t>
+  </si>
+  <si>
+    <t>KA 03 MN 3206</t>
+  </si>
+  <si>
+    <t>BEARING &amp; POLISHING</t>
   </si>
 </sst>
 </file>
@@ -752,11 +782,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -767,30 +797,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,7 +821,31 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,29 +874,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -881,9 +898,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,7 +921,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -920,7 +950,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,37 +974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,7 +998,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,13 +1022,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +1052,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,67 +1118,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,6 +1141,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1153,17 +1209,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,8 +1221,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,30 +1241,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1226,136 +1259,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,7 +1394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1711,10 +1741,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3823,6 +3853,91 @@
       </c>
       <c r="F119" t="s">
         <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
+        <v>244</v>
+      </c>
+      <c r="D120" t="s">
+        <v>137</v>
+      </c>
+      <c r="E120" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B121" t="s">
+        <v>245</v>
+      </c>
+      <c r="C121" t="s">
+        <v>71</v>
+      </c>
+      <c r="D121" t="s">
+        <v>246</v>
+      </c>
+      <c r="E121" t="s">
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B122" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" t="s">
+        <v>249</v>
+      </c>
+      <c r="D122" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>44759</v>
+      </c>
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" t="s">
+        <v>252</v>
+      </c>
+      <c r="E124" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="282">
   <si>
     <t>DATE</t>
   </si>
@@ -775,6 +775,93 @@
   </si>
   <si>
     <t>BEARING &amp; POLISHING</t>
+  </si>
+  <si>
+    <t>KA 01 MM 0513</t>
+  </si>
+  <si>
+    <t>4178               CREDIT</t>
+  </si>
+  <si>
+    <t>HR 26 BO 4009</t>
+  </si>
+  <si>
+    <t>450                   G PAY</t>
+  </si>
+  <si>
+    <t>KA 03 MY 3574</t>
+  </si>
+  <si>
+    <t>KA 53 MB 9333</t>
+  </si>
+  <si>
+    <t>FORTUNER</t>
+  </si>
+  <si>
+    <t>KA 03 MS 7865</t>
+  </si>
+  <si>
+    <t>TN 38 AA 9000</t>
+  </si>
+  <si>
+    <t>BRAKE LIGHT CHANGE</t>
+  </si>
+  <si>
+    <t>KA 03 MW 7204</t>
+  </si>
+  <si>
+    <t>10788           CREDIT</t>
+  </si>
+  <si>
+    <t>KA 03 MY 8730</t>
+  </si>
+  <si>
+    <t>5678             CARD</t>
+  </si>
+  <si>
+    <t>UK 07 AN 8469</t>
+  </si>
+  <si>
+    <t>WAGON R</t>
+  </si>
+  <si>
+    <t>KA 01 MM 0889</t>
+  </si>
+  <si>
+    <t>6400                 G PAY</t>
+  </si>
+  <si>
+    <t>TN 69 BD 5920</t>
+  </si>
+  <si>
+    <t>3146              CREDIT</t>
+  </si>
+  <si>
+    <t>AP 28 CG 6496</t>
+  </si>
+  <si>
+    <t>SWFIT DZIRE</t>
+  </si>
+  <si>
+    <t>KA 05 MK 1685</t>
+  </si>
+  <si>
+    <t>1772             CREDIT</t>
+  </si>
+  <si>
+    <t>KA 05 ML 2694</t>
+  </si>
+  <si>
+    <t>BRIO</t>
+  </si>
+  <si>
+    <t>PART SEALS                     WW</t>
+  </si>
+  <si>
+    <t>466                 CREDIT</t>
+  </si>
+  <si>
+    <t>11583            G PAY</t>
   </si>
 </sst>
 </file>
@@ -783,8 +870,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -794,14 +881,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -827,14 +906,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -843,9 +914,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,6 +944,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -892,16 +970,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,7 +992,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,7 +1015,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,7 +1037,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,25 +1115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,19 +1145,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,37 +1175,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1086,54 +1221,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1141,32 +1228,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1209,6 +1270,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1220,9 +1296,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,151 +1319,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1741,10 +1828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -3857,7 +3944,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B120" t="s">
         <v>243</v>
@@ -3874,7 +3961,7 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="2">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B121" t="s">
         <v>245</v>
@@ -3894,7 +3981,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B122" t="s">
         <v>248</v>
@@ -3911,7 +3998,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B123" t="s">
         <v>250</v>
@@ -3925,7 +4012,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>44759</v>
+        <v>44760</v>
       </c>
       <c r="B124" t="s">
         <v>251</v>
@@ -3938,6 +4025,385 @@
       </c>
       <c r="E124" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B125" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" t="s">
+        <v>223</v>
+      </c>
+      <c r="D125" t="s">
+        <v>137</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B126" t="s">
+        <v>79</v>
+      </c>
+      <c r="C126" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <v>5435</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B127" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" t="s">
+        <v>66</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>148</v>
+      </c>
+      <c r="D128" t="s">
+        <v>36</v>
+      </c>
+      <c r="E128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>259</v>
+      </c>
+      <c r="D129" t="s">
+        <v>36</v>
+      </c>
+      <c r="E129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B130" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" t="s">
+        <v>143</v>
+      </c>
+      <c r="D130" t="s">
+        <v>226</v>
+      </c>
+      <c r="E130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" t="s">
+        <v>262</v>
+      </c>
+      <c r="E131" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" t="s">
+        <v>155</v>
+      </c>
+      <c r="D132" t="s">
+        <v>226</v>
+      </c>
+      <c r="E132" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B133" t="s">
+        <v>142</v>
+      </c>
+      <c r="C133" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" t="s">
+        <v>145</v>
+      </c>
+      <c r="E133" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="2">
+        <v>44762</v>
+      </c>
+      <c r="B134" t="s">
+        <v>265</v>
+      </c>
+      <c r="C134" t="s">
+        <v>127</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B135" t="s">
+        <v>267</v>
+      </c>
+      <c r="C135" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B136" t="s">
+        <v>269</v>
+      </c>
+      <c r="C136" t="s">
+        <v>17</v>
+      </c>
+      <c r="D136" t="s">
+        <v>141</v>
+      </c>
+      <c r="E136" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B137" t="s">
+        <v>271</v>
+      </c>
+      <c r="C137" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="2">
+        <v>44763</v>
+      </c>
+      <c r="B138" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138">
+        <v>5755</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B139" t="s">
+        <v>275</v>
+      </c>
+      <c r="C139" t="s">
+        <v>77</v>
+      </c>
+      <c r="D139" t="s">
+        <v>145</v>
+      </c>
+      <c r="E139" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B140" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" t="s">
+        <v>97</v>
+      </c>
+      <c r="D140" t="s">
+        <v>58</v>
+      </c>
+      <c r="E140" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B141" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" t="s">
+        <v>155</v>
+      </c>
+      <c r="D141" t="s">
+        <v>226</v>
+      </c>
+      <c r="E141" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B142" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142">
+        <v>10260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B143" t="s">
+        <v>277</v>
+      </c>
+      <c r="C143" t="s">
+        <v>278</v>
+      </c>
+      <c r="D143" t="s">
+        <v>279</v>
+      </c>
+      <c r="E143" t="s">
+        <v>221</v>
+      </c>
+      <c r="F143" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" t="s">
+        <v>268</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -869,11 +869,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -884,8 +884,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -898,11 +899,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -915,7 +939,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,14 +950,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -968,29 +984,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -998,9 +991,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,14 +1007,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,25 +1037,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1073,25 +1145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,25 +1163,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1175,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,79 +1211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,45 +1228,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1296,11 +1257,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,151 +1317,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="273">
   <si>
     <t>DATE</t>
   </si>
@@ -33,7 +33,10 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>PAYMENT</t>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>CASH TYPE</t>
   </si>
   <si>
     <t>KA03MF2623</t>
@@ -522,21 +525,18 @@
     <t>AMAZE</t>
   </si>
   <si>
-    <t>6070                CASH</t>
+    <t xml:space="preserve">          CASH</t>
   </si>
   <si>
     <t>KA 01 MR 1124</t>
   </si>
   <si>
-    <t>5537                G PAY</t>
+    <t xml:space="preserve">       G PAY</t>
   </si>
   <si>
     <t>KA 05 MN 2052</t>
   </si>
   <si>
-    <t>2000                G PAY</t>
-  </si>
-  <si>
     <t>KA 35 M 9916</t>
   </si>
   <si>
@@ -552,7 +552,7 @@
     <t>LABOUR CHARGE</t>
   </si>
   <si>
-    <t>300                   G PAY</t>
+    <t xml:space="preserve">      G PAY</t>
   </si>
   <si>
     <t>KA 03 NC 5774</t>
@@ -561,16 +561,13 @@
     <t>DZIER</t>
   </si>
   <si>
-    <t>500                   CASH</t>
-  </si>
-  <si>
     <t>KA 51 MC 1317</t>
   </si>
   <si>
     <t>R/R</t>
   </si>
   <si>
-    <t>2900                 G PAY</t>
+    <t xml:space="preserve">            G PAY</t>
   </si>
   <si>
     <t>UP 16 AJ 4271</t>
@@ -579,16 +576,16 @@
     <t>FRONT FOG LAMP ASSY</t>
   </si>
   <si>
-    <t>4900                CREDIT</t>
-  </si>
-  <si>
-    <t>32544              CARD</t>
+    <t xml:space="preserve">        CREDIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              CARD</t>
   </si>
   <si>
     <t>WORK DON</t>
   </si>
   <si>
-    <t>3923               CREDIT</t>
+    <t xml:space="preserve">         CREDIT</t>
   </si>
   <si>
     <t>KA 51 M 5159</t>
@@ -612,7 +609,7 @@
     <t xml:space="preserve">RR                                        </t>
   </si>
   <si>
-    <t>6902                G PAY</t>
+    <t xml:space="preserve">         G PAY</t>
   </si>
   <si>
     <t>KA 53 MC 5577</t>
@@ -624,13 +621,13 @@
     <t>KA 01 ML 4331</t>
   </si>
   <si>
-    <t>12274               CARD</t>
+    <t xml:space="preserve">       CARD</t>
   </si>
   <si>
     <t>KA 51 MB 1424</t>
   </si>
   <si>
-    <t>5338                G PAY</t>
+    <t xml:space="preserve">        G PAY</t>
   </si>
   <si>
     <t>AP 16 EG 2748</t>
@@ -648,13 +645,13 @@
     <t>COOLENT OIL CHANGE</t>
   </si>
   <si>
-    <t>500                  G PAY</t>
-  </si>
-  <si>
-    <t>1644                  CARD</t>
-  </si>
-  <si>
-    <t>5649                 G PAY</t>
+    <t xml:space="preserve">     G PAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          G PAY</t>
   </si>
   <si>
     <t>KL 17 F 5995</t>
@@ -690,31 +687,22 @@
     <t>DUSTER</t>
   </si>
   <si>
-    <t>6666                G PAY</t>
-  </si>
-  <si>
     <t>KA 03 MP 2099</t>
   </si>
   <si>
     <t>COMPLAINTS                   WW</t>
   </si>
   <si>
-    <t>1062               CREDIT</t>
-  </si>
-  <si>
-    <t>12231              G PAY</t>
-  </si>
-  <si>
-    <t>7000               CASH</t>
-  </si>
-  <si>
     <t>KA 04 MR 2072</t>
   </si>
   <si>
     <t>P W SWITCH CHANGE</t>
   </si>
   <si>
-    <t>2000+2440      CARD</t>
+    <t xml:space="preserve">2000+2440    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CARD</t>
   </si>
   <si>
     <t>KA 03 MP 4973</t>
@@ -729,22 +717,16 @@
     <t>KA 02 MJ 1833</t>
   </si>
   <si>
-    <t>10694               G PAY</t>
-  </si>
-  <si>
     <t>TN 45 AU 6061</t>
   </si>
   <si>
     <t xml:space="preserve">FIGO </t>
   </si>
   <si>
-    <t>8370                 G PAY</t>
-  </si>
-  <si>
     <t>AP 39 NH 7011</t>
   </si>
   <si>
-    <t>54928    INSURANCE</t>
+    <t xml:space="preserve">  INSURANCE</t>
   </si>
   <si>
     <t>MH 46 X 5592</t>
@@ -759,7 +741,7 @@
     <t>BEARING PROBLEM</t>
   </si>
   <si>
-    <t>2308                 CARD</t>
+    <t xml:space="preserve">           CARD</t>
   </si>
   <si>
     <t>KA 01 MN 7775</t>
@@ -780,15 +762,12 @@
     <t>KA 01 MM 0513</t>
   </si>
   <si>
-    <t>4178               CREDIT</t>
+    <t xml:space="preserve">       CREDIT</t>
   </si>
   <si>
     <t>HR 26 BO 4009</t>
   </si>
   <si>
-    <t>450                   G PAY</t>
-  </si>
-  <si>
     <t>KA 03 MY 3574</t>
   </si>
   <si>
@@ -807,16 +786,19 @@
     <t>BRAKE LIGHT CHANGE</t>
   </si>
   <si>
+    <t xml:space="preserve">             G PAY</t>
+  </si>
+  <si>
     <t>KA 03 MW 7204</t>
   </si>
   <si>
-    <t>10788           CREDIT</t>
+    <t xml:space="preserve">     CREDIT</t>
   </si>
   <si>
     <t>KA 03 MY 8730</t>
   </si>
   <si>
-    <t>5678             CARD</t>
+    <t xml:space="preserve">     CARD</t>
   </si>
   <si>
     <t>UK 07 AN 8469</t>
@@ -828,13 +810,10 @@
     <t>KA 01 MM 0889</t>
   </si>
   <si>
-    <t>6400                 G PAY</t>
-  </si>
-  <si>
     <t>TN 69 BD 5920</t>
   </si>
   <si>
-    <t>3146              CREDIT</t>
+    <t xml:space="preserve">      CREDIT</t>
   </si>
   <si>
     <t>AP 28 CG 6496</t>
@@ -846,9 +825,6 @@
     <t>KA 05 MK 1685</t>
   </si>
   <si>
-    <t>1772             CREDIT</t>
-  </si>
-  <si>
     <t>KA 05 ML 2694</t>
   </si>
   <si>
@@ -858,10 +834,7 @@
     <t>PART SEALS                     WW</t>
   </si>
   <si>
-    <t>466                 CREDIT</t>
-  </si>
-  <si>
-    <t>11583            G PAY</t>
+    <t xml:space="preserve">          CREDIT</t>
   </si>
 </sst>
 </file>
@@ -869,11 +842,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -881,21 +854,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -914,19 +872,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,6 +902,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -953,10 +917,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -984,6 +949,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -991,8 +971,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,15 +995,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,19 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,49 +1028,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,7 +1076,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,19 +1136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,37 +1148,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,12 +1191,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,24 +1219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1275,6 +1230,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1294,17 +1258,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1328,151 +1286,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1481,7 +1454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,23 +1801,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.2857142857143" style="2"/>
     <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="22.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1862,6 +1835,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1869,16 +1845,16 @@
         <v>44732</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1886,16 +1862,16 @@
         <v>44732</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1903,16 +1879,16 @@
         <v>44733</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1920,16 +1896,16 @@
         <v>44733</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1937,16 +1913,16 @@
         <v>44733</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1954,16 +1930,16 @@
         <v>44733</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1971,16 +1947,16 @@
         <v>44733</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1988,16 +1964,16 @@
         <v>44733</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2005,16 +1981,16 @@
         <v>44733</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2022,16 +1998,16 @@
         <v>44733</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2039,16 +2015,16 @@
         <v>44733</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2056,16 +2032,16 @@
         <v>44733</v>
       </c>
       <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
         <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2073,16 +2049,16 @@
         <v>44733</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2090,16 +2066,16 @@
         <v>44734</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2107,16 +2083,16 @@
         <v>44734</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2124,16 +2100,16 @@
         <v>44734</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2141,16 +2117,16 @@
         <v>44734</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2158,16 +2134,16 @@
         <v>44734</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2175,16 +2151,16 @@
         <v>44735</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2192,16 +2168,16 @@
         <v>44735</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2209,16 +2185,16 @@
         <v>44735</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2226,16 +2202,16 @@
         <v>44735</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2243,16 +2219,16 @@
         <v>44735</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2260,16 +2236,16 @@
         <v>44735</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2277,16 +2253,16 @@
         <v>44736</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2294,16 +2270,16 @@
         <v>44737</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2311,16 +2287,16 @@
         <v>44737</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2328,16 +2304,16 @@
         <v>44737</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2345,16 +2321,16 @@
         <v>44737</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2362,16 +2338,16 @@
         <v>44737</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2379,16 +2355,16 @@
         <v>44738</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2396,16 +2372,16 @@
         <v>44739</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2413,16 +2389,16 @@
         <v>44739</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2430,16 +2406,16 @@
         <v>44739</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="17" customHeight="1" spans="1:5">
@@ -2447,16 +2423,16 @@
         <v>44742</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2464,16 +2440,16 @@
         <v>44742</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2481,16 +2457,16 @@
         <v>44742</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2498,16 +2474,16 @@
         <v>44742</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2515,16 +2491,16 @@
         <v>44742</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2532,16 +2508,16 @@
         <v>44742</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2549,16 +2525,16 @@
         <v>44742</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2566,16 +2542,16 @@
         <v>44742</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2583,16 +2559,16 @@
         <v>44743</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2600,16 +2576,16 @@
         <v>44743</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2617,16 +2593,16 @@
         <v>44743</v>
       </c>
       <c r="B46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2634,16 +2610,16 @@
         <v>44743</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2651,16 +2627,16 @@
         <v>44743</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2668,16 +2644,16 @@
         <v>44743</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2685,16 +2661,16 @@
         <v>44743</v>
       </c>
       <c r="B50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2702,16 +2678,16 @@
         <v>44744</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2719,16 +2695,16 @@
         <v>44744</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2736,16 +2712,16 @@
         <v>44744</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2753,16 +2729,16 @@
         <v>44744</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2770,16 +2746,16 @@
         <v>44746</v>
       </c>
       <c r="B55" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2787,16 +2763,16 @@
         <v>44746</v>
       </c>
       <c r="B56" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2804,16 +2780,16 @@
         <v>44746</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2821,16 +2797,16 @@
         <v>44746</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2838,16 +2814,16 @@
         <v>44746</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2855,16 +2831,16 @@
         <v>44747</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2872,16 +2848,16 @@
         <v>44747</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" customFormat="1" spans="1:5">
@@ -2889,16 +2865,16 @@
         <v>44747</v>
       </c>
       <c r="B62" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2906,16 +2882,16 @@
         <v>44747</v>
       </c>
       <c r="B63" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2923,16 +2899,16 @@
         <v>44748</v>
       </c>
       <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
         <v>142</v>
       </c>
-      <c r="C64" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" t="s">
-        <v>141</v>
-      </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2940,16 +2916,16 @@
         <v>44748</v>
       </c>
       <c r="B65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2957,16 +2933,16 @@
         <v>44748</v>
       </c>
       <c r="B66" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2974,16 +2950,16 @@
         <v>44748</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2991,16 +2967,16 @@
         <v>44748</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3008,16 +2984,16 @@
         <v>44749</v>
       </c>
       <c r="B69" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3025,16 +3001,16 @@
         <v>44749</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3042,16 +3018,16 @@
         <v>44749</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D71" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3059,16 +3035,16 @@
         <v>44749</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D72" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3076,16 +3052,16 @@
         <v>44749</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D73" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3093,16 +3069,16 @@
         <v>44749</v>
       </c>
       <c r="B74" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" t="s">
+        <v>142</v>
+      </c>
+      <c r="E74" t="s">
         <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>140</v>
-      </c>
-      <c r="D74" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3110,16 +3086,16 @@
         <v>44750</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3127,16 +3103,16 @@
         <v>44750</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3144,16 +3120,16 @@
         <v>44750</v>
       </c>
       <c r="B77" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3161,16 +3137,16 @@
         <v>44750</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3178,16 +3154,16 @@
         <v>44750</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3195,16 +3171,16 @@
         <v>44750</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3212,76 +3188,85 @@
         <v>44751</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>44751</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="F82">
+        <v>6070</v>
+      </c>
+      <c r="G82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>44751</v>
       </c>
       <c r="B83" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F83">
+        <v>5537</v>
+      </c>
+      <c r="G83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>44751</v>
       </c>
       <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+      <c r="F84">
+        <v>2000</v>
+      </c>
+      <c r="G84" t="s">
         <v>171</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>63</v>
-      </c>
-      <c r="E84" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3292,16 +3277,16 @@
         <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>44751</v>
       </c>
@@ -3317,11 +3302,14 @@
       <c r="E86" t="s">
         <v>177</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86">
+        <v>300</v>
+      </c>
+      <c r="G86" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>44751</v>
       </c>
@@ -3332,73 +3320,85 @@
         <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E87" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F87">
+        <v>500</v>
+      </c>
+      <c r="G87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>44751</v>
       </c>
       <c r="B88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
         <v>182</v>
       </c>
-      <c r="C88" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+      <c r="F88">
+        <v>2900</v>
+      </c>
+      <c r="G88" t="s">
         <v>183</v>
       </c>
-      <c r="E88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>44751</v>
       </c>
       <c r="B89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C89" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" t="s">
         <v>185</v>
       </c>
-      <c r="C89" t="s">
-        <v>94</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89">
+        <v>4900</v>
+      </c>
+      <c r="G89" t="s">
         <v>186</v>
       </c>
-      <c r="E89" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>44751</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" t="s">
-        <v>188</v>
+        <v>28</v>
+      </c>
+      <c r="F90">
+        <v>32544</v>
+      </c>
+      <c r="G90" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3406,36 +3406,39 @@
         <v>44751</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>44751</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" t="s">
-        <v>190</v>
+        <v>28</v>
+      </c>
+      <c r="F92">
+        <v>3923</v>
+      </c>
+      <c r="G92" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3443,16 +3446,16 @@
         <v>44753</v>
       </c>
       <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
         <v>191</v>
       </c>
-      <c r="C93" t="s">
-        <v>192</v>
-      </c>
       <c r="D93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3460,36 +3463,39 @@
         <v>44753</v>
       </c>
       <c r="B94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" t="s">
         <v>193</v>
       </c>
-      <c r="C94" t="s">
-        <v>194</v>
-      </c>
       <c r="D94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>44753</v>
       </c>
       <c r="B95" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s">
         <v>195</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>196</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95">
+        <v>6902</v>
+      </c>
+      <c r="G95" t="s">
         <v>197</v>
-      </c>
-      <c r="E95" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3497,16 +3503,16 @@
         <v>44753</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3514,56 +3520,62 @@
         <v>44753</v>
       </c>
       <c r="B97" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>44753</v>
       </c>
       <c r="B98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C98" t="s">
+        <v>141</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98">
+        <v>12274</v>
+      </c>
+      <c r="G98" t="s">
         <v>201</v>
       </c>
-      <c r="C98" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>44754</v>
       </c>
       <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99">
+        <v>5338</v>
+      </c>
+      <c r="G99" t="s">
         <v>203</v>
-      </c>
-      <c r="C99" t="s">
-        <v>103</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>27</v>
-      </c>
-      <c r="F99" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3571,76 +3583,85 @@
         <v>44754</v>
       </c>
       <c r="B100" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" t="s">
         <v>205</v>
       </c>
-      <c r="C100" t="s">
-        <v>206</v>
-      </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>44754</v>
       </c>
       <c r="B101" t="s">
+        <v>206</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>208</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101">
+        <v>500</v>
+      </c>
+      <c r="G101" t="s">
         <v>209</v>
       </c>
-      <c r="E101" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
         <v>44754</v>
       </c>
       <c r="B102" t="s">
+        <v>192</v>
+      </c>
+      <c r="C102" t="s">
         <v>193</v>
       </c>
-      <c r="C102" t="s">
-        <v>194</v>
-      </c>
       <c r="D102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E102" t="s">
-        <v>27</v>
-      </c>
-      <c r="F102" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F102">
+        <v>1644</v>
+      </c>
+      <c r="G102" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>44754</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E103" t="s">
-        <v>27</v>
-      </c>
-      <c r="F103" t="s">
-        <v>212</v>
+        <v>28</v>
+      </c>
+      <c r="F103">
+        <v>5649</v>
+      </c>
+      <c r="G103" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3648,16 +3669,16 @@
         <v>44755</v>
       </c>
       <c r="B104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104" t="s">
         <v>213</v>
       </c>
-      <c r="C104" t="s">
-        <v>214</v>
-      </c>
       <c r="D104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3665,16 +3686,16 @@
         <v>44755</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C105" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3682,16 +3703,16 @@
         <v>44755</v>
       </c>
       <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" t="s">
         <v>215</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>216</v>
       </c>
-      <c r="D106" t="s">
-        <v>217</v>
-      </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3699,16 +3720,16 @@
         <v>44755</v>
       </c>
       <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107" t="s">
         <v>218</v>
       </c>
-      <c r="C107" t="s">
-        <v>219</v>
-      </c>
       <c r="D107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3716,136 +3737,154 @@
         <v>44755</v>
       </c>
       <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" t="s">
         <v>220</v>
       </c>
-      <c r="C108" t="s">
-        <v>88</v>
-      </c>
-      <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="2">
         <v>44755</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D109" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
-      </c>
-      <c r="F109" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F109">
+        <v>2000</v>
+      </c>
+      <c r="G109" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="2">
         <v>44756</v>
       </c>
       <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="s">
         <v>222</v>
       </c>
-      <c r="C110" t="s">
-        <v>223</v>
-      </c>
       <c r="D110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
-      </c>
-      <c r="F110" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F110">
+        <v>6666</v>
+      </c>
+      <c r="G110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="2">
         <v>44756</v>
       </c>
       <c r="B111" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D111" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E111" t="s">
-        <v>27</v>
-      </c>
-      <c r="F111" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F111">
+        <v>1062</v>
+      </c>
+      <c r="G111" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="2">
         <v>44756</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>27</v>
-      </c>
-      <c r="F112" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F112">
+        <v>12231</v>
+      </c>
+      <c r="G112" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="2">
         <v>44757</v>
       </c>
       <c r="B113" t="s">
+        <v>204</v>
+      </c>
+      <c r="C113" t="s">
         <v>205</v>
       </c>
-      <c r="C113" t="s">
-        <v>206</v>
-      </c>
       <c r="D113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E113" t="s">
-        <v>27</v>
-      </c>
-      <c r="F113" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F113">
+        <v>7000</v>
+      </c>
+      <c r="G113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="2">
         <v>44757</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C114" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F114" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="G114" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3853,16 +3892,16 @@
         <v>44757</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3870,76 +3909,85 @@
         <v>44757</v>
       </c>
       <c r="B116" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="2">
         <v>44758</v>
       </c>
       <c r="B117" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C117" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>27</v>
-      </c>
-      <c r="F117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F117">
+        <v>10694</v>
+      </c>
+      <c r="G117" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="2">
         <v>44758</v>
       </c>
       <c r="B118" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C118" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F118">
+        <v>8370</v>
+      </c>
+      <c r="G118" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="2">
         <v>44758</v>
       </c>
       <c r="B119" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E119" t="s">
-        <v>234</v>
-      </c>
-      <c r="F119" t="s">
-        <v>242</v>
+        <v>230</v>
+      </c>
+      <c r="F119">
+        <v>54928</v>
+      </c>
+      <c r="G119" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3947,36 +3995,39 @@
         <v>44760</v>
       </c>
       <c r="B120" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C120" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="2">
         <v>44760</v>
       </c>
       <c r="B121" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D121" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E121" t="s">
-        <v>27</v>
-      </c>
-      <c r="F121" t="s">
-        <v>247</v>
+        <v>28</v>
+      </c>
+      <c r="F121">
+        <v>2308</v>
+      </c>
+      <c r="G121" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3984,16 +4035,16 @@
         <v>44760</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4001,13 +4052,13 @@
         <v>44760</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4015,36 +4066,39 @@
         <v>44760</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E124" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="2">
         <v>44761</v>
       </c>
       <c r="B125" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D125" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125" t="s">
-        <v>254</v>
+        <v>28</v>
+      </c>
+      <c r="F125">
+        <v>4178</v>
+      </c>
+      <c r="G125" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4052,39 +4106,42 @@
         <v>44761</v>
       </c>
       <c r="B126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C126" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F126">
         <v>5435</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:7">
       <c r="A127" s="2">
         <v>44761</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E127" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" t="s">
-        <v>256</v>
+        <v>28</v>
+      </c>
+      <c r="F127">
+        <v>450</v>
+      </c>
+      <c r="G127" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4092,16 +4149,16 @@
         <v>44761</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4109,16 +4166,16 @@
         <v>44761</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4126,36 +4183,39 @@
         <v>44762</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C130" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D130" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="2">
         <v>44762</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C131" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E131" t="s">
-        <v>27</v>
-      </c>
-      <c r="F131" t="s">
-        <v>178</v>
+        <v>28</v>
+      </c>
+      <c r="F131">
+        <v>300</v>
+      </c>
+      <c r="G131" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4163,56 +4223,62 @@
         <v>44762</v>
       </c>
       <c r="B132" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D132" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="2">
         <v>44762</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C133" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D133" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E133" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F133">
+        <v>10788</v>
+      </c>
+      <c r="G133" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="2">
         <v>44762</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C134" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E134" t="s">
-        <v>27</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
+        <v>28</v>
+      </c>
+      <c r="F134">
+        <v>5678</v>
+      </c>
+      <c r="G134" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4220,56 +4286,62 @@
         <v>44763</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C135" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="2">
         <v>44763</v>
       </c>
       <c r="B136" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C136" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E136" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F136">
+        <v>6400</v>
+      </c>
+      <c r="G136" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="2">
         <v>44763</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C137" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E137" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" t="s">
-        <v>272</v>
+        <v>28</v>
+      </c>
+      <c r="F137">
+        <v>3146</v>
+      </c>
+      <c r="G137" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4277,16 +4349,16 @@
         <v>44763</v>
       </c>
       <c r="B138" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C138" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F138">
         <v>5755</v>
@@ -4297,16 +4369,16 @@
         <v>44764</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C139" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E139" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4314,36 +4386,39 @@
         <v>44764</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E140" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="2">
         <v>44764</v>
       </c>
       <c r="B141" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C141" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D141" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" t="s">
-        <v>276</v>
+        <v>28</v>
+      </c>
+      <c r="F141">
+        <v>1772</v>
+      </c>
+      <c r="G141" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4351,59 +4426,65 @@
         <v>44764</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F142">
         <v>10260</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:7">
       <c r="A143" s="2">
         <v>44764</v>
       </c>
       <c r="B143" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="E143" t="s">
-        <v>221</v>
-      </c>
-      <c r="F143" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>220</v>
+      </c>
+      <c r="F143">
+        <v>466</v>
+      </c>
+      <c r="G143" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="2">
         <v>44764</v>
       </c>
       <c r="B144" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C144" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" t="s">
-        <v>281</v>
+        <v>28</v>
+      </c>
+      <c r="F144">
+        <v>11583</v>
+      </c>
+      <c r="G144" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="272">
   <si>
     <t>DATE</t>
   </si>
@@ -697,9 +697,6 @@
   </si>
   <si>
     <t>P W SWITCH CHANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000+2440    </t>
   </si>
   <si>
     <t xml:space="preserve">  CARD</t>
@@ -842,11 +839,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -858,15 +855,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,9 +868,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -896,22 +922,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -926,16 +937,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,23 +952,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,6 +969,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -988,14 +984,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,7 +1007,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,43 +1031,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,19 +1055,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,7 +1085,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,73 +1133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,6 +1149,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1204,17 +1201,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,15 +1230,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,9 +1251,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1270,19 +1263,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,151 +1283,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1454,7 +1451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1803,8 +1800,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3880,11 +3877,12 @@
       <c r="E114" t="s">
         <v>28</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114">
+        <f>2000+2440</f>
+        <v>4440</v>
+      </c>
+      <c r="G114" t="s">
         <v>227</v>
-      </c>
-      <c r="G114" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3892,7 +3890,7 @@
         <v>44757</v>
       </c>
       <c r="B115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C115" t="s">
         <v>102</v>
@@ -3901,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3909,7 +3907,7 @@
         <v>44757</v>
       </c>
       <c r="B116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C116" t="s">
         <v>95</v>
@@ -3926,7 +3924,7 @@
         <v>44758</v>
       </c>
       <c r="B117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C117" t="s">
         <v>104</v>
@@ -3949,10 +3947,10 @@
         <v>44758</v>
       </c>
       <c r="B118" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" t="s">
         <v>233</v>
-      </c>
-      <c r="C118" t="s">
-        <v>234</v>
       </c>
       <c r="D118" t="s">
         <v>142</v>
@@ -3972,7 +3970,7 @@
         <v>44758</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" t="s">
         <v>118</v>
@@ -3981,13 +3979,13 @@
         <v>37</v>
       </c>
       <c r="E119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F119">
         <v>54928</v>
       </c>
       <c r="G119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3995,10 +3993,10 @@
         <v>44760</v>
       </c>
       <c r="B120" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" t="s">
         <v>237</v>
-      </c>
-      <c r="C120" t="s">
-        <v>238</v>
       </c>
       <c r="D120" t="s">
         <v>138</v>
@@ -4012,13 +4010,13 @@
         <v>44760</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C121" t="s">
         <v>72</v>
       </c>
       <c r="D121" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E121" t="s">
         <v>28</v>
@@ -4027,7 +4025,7 @@
         <v>2308</v>
       </c>
       <c r="G121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4035,10 +4033,10 @@
         <v>44760</v>
       </c>
       <c r="B122" t="s">
+        <v>241</v>
+      </c>
+      <c r="C122" t="s">
         <v>242</v>
-      </c>
-      <c r="C122" t="s">
-        <v>243</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -4052,7 +4050,7 @@
         <v>44760</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
         <v>15</v>
@@ -4066,16 +4064,16 @@
         <v>44760</v>
       </c>
       <c r="B124" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
         <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E124" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4083,7 +4081,7 @@
         <v>44761</v>
       </c>
       <c r="B125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
         <v>222</v>
@@ -4098,7 +4096,7 @@
         <v>4178</v>
       </c>
       <c r="G125" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4126,7 +4124,7 @@
         <v>44761</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
         <v>18</v>
@@ -4149,7 +4147,7 @@
         <v>44761</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
         <v>149</v>
@@ -4166,10 +4164,10 @@
         <v>44761</v>
       </c>
       <c r="B129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" t="s">
         <v>251</v>
-      </c>
-      <c r="C129" t="s">
-        <v>252</v>
       </c>
       <c r="D129" t="s">
         <v>37</v>
@@ -4183,7 +4181,7 @@
         <v>44762</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C130" t="s">
         <v>144</v>
@@ -4200,13 +4198,13 @@
         <v>44762</v>
       </c>
       <c r="B131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C131" t="s">
         <v>52</v>
       </c>
       <c r="D131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E131" t="s">
         <v>28</v>
@@ -4215,7 +4213,7 @@
         <v>300</v>
       </c>
       <c r="G131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4223,7 +4221,7 @@
         <v>44762</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132" t="s">
         <v>156</v>
@@ -4255,7 +4253,7 @@
         <v>10788</v>
       </c>
       <c r="G133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4263,7 +4261,7 @@
         <v>44762</v>
       </c>
       <c r="B134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C134" t="s">
         <v>128</v>
@@ -4278,7 +4276,7 @@
         <v>5678</v>
       </c>
       <c r="G134" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4286,16 +4284,16 @@
         <v>44763</v>
       </c>
       <c r="B135" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" t="s">
         <v>261</v>
-      </c>
-      <c r="C135" t="s">
-        <v>262</v>
       </c>
       <c r="D135" t="s">
         <v>9</v>
       </c>
       <c r="E135" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4303,7 +4301,7 @@
         <v>44763</v>
       </c>
       <c r="B136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C136" t="s">
         <v>18</v>
@@ -4326,7 +4324,7 @@
         <v>44763</v>
       </c>
       <c r="B137" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C137" t="s">
         <v>149</v>
@@ -4341,7 +4339,7 @@
         <v>3146</v>
       </c>
       <c r="G137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4349,10 +4347,10 @@
         <v>44763</v>
       </c>
       <c r="B138" t="s">
+        <v>265</v>
+      </c>
+      <c r="C138" t="s">
         <v>266</v>
-      </c>
-      <c r="C138" t="s">
-        <v>267</v>
       </c>
       <c r="D138" t="s">
         <v>9</v>
@@ -4369,7 +4367,7 @@
         <v>44764</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" t="s">
         <v>78</v>
@@ -4395,7 +4393,7 @@
         <v>59</v>
       </c>
       <c r="E140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4403,7 +4401,7 @@
         <v>44764</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C141" t="s">
         <v>156</v>
@@ -4418,7 +4416,7 @@
         <v>1772</v>
       </c>
       <c r="G141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4446,13 +4444,13 @@
         <v>44764</v>
       </c>
       <c r="B143" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" t="s">
         <v>269</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>270</v>
-      </c>
-      <c r="D143" t="s">
-        <v>271</v>
       </c>
       <c r="E143" t="s">
         <v>220</v>
@@ -4461,7 +4459,7 @@
         <v>466</v>
       </c>
       <c r="G143" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4469,10 +4467,10 @@
         <v>44764</v>
       </c>
       <c r="B144" t="s">
+        <v>260</v>
+      </c>
+      <c r="C144" t="s">
         <v>261</v>
-      </c>
-      <c r="C144" t="s">
-        <v>262</v>
       </c>
       <c r="D144" t="s">
         <v>9</v>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1800,8 +1800,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -1446,12 +1446,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1800,8 +1804,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1811,7 +1815,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="22.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="13.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="13.1428571428571" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1830,7 +1834,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -2857,7 +2861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:5">
+    <row r="62" customFormat="1" spans="1:6">
       <c r="A62" s="2">
         <v>44747</v>
       </c>
@@ -2873,6 +2877,7 @@
       <c r="E62" t="s">
         <v>28</v>
       </c>
+      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
@@ -3213,7 +3218,7 @@
       <c r="E82" t="s">
         <v>25</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>6070</v>
       </c>
       <c r="G82" t="s">
@@ -3236,7 +3241,7 @@
       <c r="E83" t="s">
         <v>28</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>5537</v>
       </c>
       <c r="G83" t="s">
@@ -3259,7 +3264,7 @@
       <c r="E84" t="s">
         <v>28</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>2000</v>
       </c>
       <c r="G84" t="s">
@@ -3299,7 +3304,7 @@
       <c r="E86" t="s">
         <v>177</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>300</v>
       </c>
       <c r="G86" t="s">
@@ -3322,7 +3327,7 @@
       <c r="E87" t="s">
         <v>28</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>500</v>
       </c>
       <c r="G87" t="s">
@@ -3345,7 +3350,7 @@
       <c r="E88" t="s">
         <v>28</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>2900</v>
       </c>
       <c r="G88" t="s">
@@ -3368,7 +3373,7 @@
       <c r="E89" t="s">
         <v>28</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>4900</v>
       </c>
       <c r="G89" t="s">
@@ -3391,7 +3396,7 @@
       <c r="E90" t="s">
         <v>28</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>32544</v>
       </c>
       <c r="G90" t="s">
@@ -3431,7 +3436,7 @@
       <c r="E92" t="s">
         <v>28</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>3923</v>
       </c>
       <c r="G92" t="s">
@@ -3488,7 +3493,7 @@
       <c r="E95" t="s">
         <v>28</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>6902</v>
       </c>
       <c r="G95" t="s">
@@ -3545,7 +3550,7 @@
       <c r="E98" t="s">
         <v>28</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>12274</v>
       </c>
       <c r="G98" t="s">
@@ -3568,7 +3573,7 @@
       <c r="E99" t="s">
         <v>28</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>5338</v>
       </c>
       <c r="G99" t="s">
@@ -3608,7 +3613,7 @@
       <c r="E101" t="s">
         <v>28</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
       <c r="G101" t="s">
@@ -3631,7 +3636,7 @@
       <c r="E102" t="s">
         <v>28</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>1644</v>
       </c>
       <c r="G102" t="s">
@@ -3654,7 +3659,7 @@
       <c r="E103" t="s">
         <v>28</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>5649</v>
       </c>
       <c r="G103" t="s">
@@ -3762,7 +3767,7 @@
       <c r="E109" t="s">
         <v>28</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>2000</v>
       </c>
       <c r="G109" t="s">
@@ -3785,7 +3790,7 @@
       <c r="E110" t="s">
         <v>28</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>6666</v>
       </c>
       <c r="G110" t="s">
@@ -3808,7 +3813,7 @@
       <c r="E111" t="s">
         <v>28</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>1062</v>
       </c>
       <c r="G111" t="s">
@@ -3831,7 +3836,7 @@
       <c r="E112" t="s">
         <v>28</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>12231</v>
       </c>
       <c r="G112" t="s">
@@ -3854,7 +3859,7 @@
       <c r="E113" t="s">
         <v>28</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>7000</v>
       </c>
       <c r="G113" t="s">
@@ -3877,7 +3882,7 @@
       <c r="E114" t="s">
         <v>28</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <f>2000+2440</f>
         <v>4440</v>
       </c>
@@ -3935,7 +3940,7 @@
       <c r="E117" t="s">
         <v>28</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>10694</v>
       </c>
       <c r="G117" t="s">
@@ -3958,7 +3963,7 @@
       <c r="E118" t="s">
         <v>28</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>8370</v>
       </c>
       <c r="G118" t="s">
@@ -3981,7 +3986,7 @@
       <c r="E119" t="s">
         <v>229</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>54928</v>
       </c>
       <c r="G119" t="s">
@@ -4021,7 +4026,7 @@
       <c r="E121" t="s">
         <v>28</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>2308</v>
       </c>
       <c r="G121" t="s">
@@ -4092,7 +4097,7 @@
       <c r="E125" t="s">
         <v>28</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>4178</v>
       </c>
       <c r="G125" t="s">
@@ -4115,7 +4120,7 @@
       <c r="E126" t="s">
         <v>28</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>5435</v>
       </c>
     </row>
@@ -4135,7 +4140,7 @@
       <c r="E127" t="s">
         <v>28</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>450</v>
       </c>
       <c r="G127" t="s">
@@ -4209,7 +4214,7 @@
       <c r="E131" t="s">
         <v>28</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="3">
         <v>300</v>
       </c>
       <c r="G131" t="s">
@@ -4249,7 +4254,7 @@
       <c r="E133" t="s">
         <v>28</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="3">
         <v>10788</v>
       </c>
       <c r="G133" t="s">
@@ -4272,7 +4277,7 @@
       <c r="E134" t="s">
         <v>28</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="3">
         <v>5678</v>
       </c>
       <c r="G134" t="s">
@@ -4312,7 +4317,7 @@
       <c r="E136" t="s">
         <v>28</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="3">
         <v>6400</v>
       </c>
       <c r="G136" t="s">
@@ -4335,7 +4340,7 @@
       <c r="E137" t="s">
         <v>28</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="3">
         <v>3146</v>
       </c>
       <c r="G137" t="s">
@@ -4358,7 +4363,7 @@
       <c r="E138" t="s">
         <v>28</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="3">
         <v>5755</v>
       </c>
     </row>
@@ -4412,7 +4417,7 @@
       <c r="E141" t="s">
         <v>28</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="3">
         <v>1772</v>
       </c>
       <c r="G141" t="s">
@@ -4435,7 +4440,7 @@
       <c r="E142" t="s">
         <v>28</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="3">
         <v>10260</v>
       </c>
     </row>
@@ -4455,7 +4460,7 @@
       <c r="E143" t="s">
         <v>220</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="3">
         <v>466</v>
       </c>
       <c r="G143" t="s">
@@ -4478,7 +4483,7 @@
       <c r="E144" t="s">
         <v>28</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="3">
         <v>11583</v>
       </c>
       <c r="G144" t="s">

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -838,12 +838,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1452,8 +1453,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1804,8 +1805,8 @@
   <sheetPr/>
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
   <si>
     <t>DATE</t>
   </si>
@@ -832,6 +832,27 @@
   </si>
   <si>
     <t xml:space="preserve">          CREDIT</t>
+  </si>
+  <si>
+    <t>KA 03 MM 7587</t>
+  </si>
+  <si>
+    <t>HONDA CITY</t>
+  </si>
+  <si>
+    <t>G PAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KA 01 MG 5489</t>
+  </si>
+  <si>
+    <t>KA 53 MC 5812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR </t>
+  </si>
+  <si>
+    <t>ETIOS LIVA</t>
   </si>
 </sst>
 </file>
@@ -839,11 +860,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
@@ -856,7 +877,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -876,8 +913,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,14 +944,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -907,16 +952,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,70 +1006,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,19 +1029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,13 +1053,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1056,13 +1113,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,91 +1185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,25 +1209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,24 +1220,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1231,6 +1234,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,6 +1264,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1261,11 +1282,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1285,24 +1312,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,148 +1338,148 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1803,10 +1827,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="G149" sqref="G149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1817,6 +1841,7 @@
     <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="22.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="13.1428571428571" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -3222,7 +3247,7 @@
       <c r="F82" s="3">
         <v>6070</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3245,7 +3270,7 @@
       <c r="F83" s="3">
         <v>5537</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3268,11 +3293,11 @@
       <c r="F84" s="3">
         <v>2000</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>44751</v>
       </c>
@@ -3288,6 +3313,7 @@
       <c r="E85" t="s">
         <v>16</v>
       </c>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="2">
@@ -3308,7 +3334,7 @@
       <c r="F86" s="3">
         <v>300</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3331,7 +3357,7 @@
       <c r="F87" s="3">
         <v>500</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3354,7 +3380,7 @@
       <c r="F88" s="3">
         <v>2900</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="5" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3377,7 +3403,7 @@
       <c r="F89" s="3">
         <v>4900</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3400,11 +3426,11 @@
       <c r="F90" s="3">
         <v>32544</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>44751</v>
       </c>
@@ -3420,6 +3446,7 @@
       <c r="E91" t="s">
         <v>188</v>
       </c>
+      <c r="G91" s="5"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="2">
@@ -3440,11 +3467,11 @@
       <c r="F92" s="3">
         <v>3923</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>44753</v>
       </c>
@@ -3460,8 +3487,9 @@
       <c r="E93" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93" s="5"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>44753</v>
       </c>
@@ -3477,6 +3505,7 @@
       <c r="E94" t="s">
         <v>23</v>
       </c>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="2">
@@ -3497,11 +3526,11 @@
       <c r="F95" s="3">
         <v>6902</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>44753</v>
       </c>
@@ -3517,8 +3546,9 @@
       <c r="E96" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>44753</v>
       </c>
@@ -3534,6 +3564,7 @@
       <c r="E97" t="s">
         <v>23</v>
       </c>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="2">
@@ -3554,7 +3585,7 @@
       <c r="F98" s="3">
         <v>12274</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="5" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3577,11 +3608,11 @@
       <c r="F99" s="3">
         <v>5338</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>44754</v>
       </c>
@@ -3597,6 +3628,7 @@
       <c r="E100" t="s">
         <v>16</v>
       </c>
+      <c r="G100" s="5"/>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="2">
@@ -3617,7 +3649,7 @@
       <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3640,7 +3672,7 @@
       <c r="F102" s="3">
         <v>1644</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="5" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3663,11 +3695,11 @@
       <c r="F103" s="3">
         <v>5649</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="2">
         <v>44755</v>
       </c>
@@ -3683,8 +3715,9 @@
       <c r="E104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="2">
         <v>44755</v>
       </c>
@@ -3700,8 +3733,9 @@
       <c r="E105" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105" s="5"/>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="2">
         <v>44755</v>
       </c>
@@ -3717,8 +3751,9 @@
       <c r="E106" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="2">
         <v>44755</v>
       </c>
@@ -3734,8 +3769,9 @@
       <c r="E107" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107" s="5"/>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="2">
         <v>44755</v>
       </c>
@@ -3751,6 +3787,7 @@
       <c r="E108" t="s">
         <v>220</v>
       </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="2">
@@ -3771,7 +3808,7 @@
       <c r="F109" s="3">
         <v>2000</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3794,7 +3831,7 @@
       <c r="F110" s="3">
         <v>6666</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3817,7 +3854,7 @@
       <c r="F111" s="3">
         <v>1062</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="5" t="s">
         <v>189</v>
       </c>
     </row>
@@ -3840,7 +3877,7 @@
       <c r="F112" s="3">
         <v>12231</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="5" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3863,7 +3900,7 @@
       <c r="F113" s="3">
         <v>7000</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3887,11 +3924,11 @@
         <f>2000+2440</f>
         <v>4440</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:7">
       <c r="A115" s="2">
         <v>44757</v>
       </c>
@@ -3907,8 +3944,9 @@
       <c r="E115" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="2">
         <v>44757</v>
       </c>
@@ -3924,6 +3962,7 @@
       <c r="E116" t="s">
         <v>23</v>
       </c>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="2">
@@ -3944,7 +3983,7 @@
       <c r="F117" s="3">
         <v>10694</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -3967,7 +4006,7 @@
       <c r="F118" s="3">
         <v>8370</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="5" t="s">
         <v>209</v>
       </c>
     </row>
@@ -3990,11 +4029,11 @@
       <c r="F119" s="3">
         <v>54928</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="5" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:7">
       <c r="A120" s="2">
         <v>44760</v>
       </c>
@@ -4010,6 +4049,7 @@
       <c r="E120" t="s">
         <v>23</v>
       </c>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" s="2">
@@ -4030,11 +4070,11 @@
       <c r="F121" s="3">
         <v>2308</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:7">
       <c r="A122" s="2">
         <v>44760</v>
       </c>
@@ -4050,8 +4090,9 @@
       <c r="E122" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="G122" s="5"/>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="2">
         <v>44760</v>
       </c>
@@ -4064,8 +4105,9 @@
       <c r="D123" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="G123" s="5"/>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="2">
         <v>44760</v>
       </c>
@@ -4081,6 +4123,7 @@
       <c r="E124" t="s">
         <v>229</v>
       </c>
+      <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="2">
@@ -4101,11 +4144,11 @@
       <c r="F125" s="3">
         <v>4178</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:7">
       <c r="A126" s="2">
         <v>44761</v>
       </c>
@@ -4124,6 +4167,7 @@
       <c r="F126" s="3">
         <v>5435</v>
       </c>
+      <c r="G126" s="5"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="2">
@@ -4144,11 +4188,11 @@
       <c r="F127" s="3">
         <v>450</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="5" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:7">
       <c r="A128" s="2">
         <v>44761</v>
       </c>
@@ -4164,8 +4208,9 @@
       <c r="E128" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="2">
         <v>44761</v>
       </c>
@@ -4181,8 +4226,9 @@
       <c r="E129" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="2">
         <v>44762</v>
       </c>
@@ -4198,6 +4244,7 @@
       <c r="E130" t="s">
         <v>23</v>
       </c>
+      <c r="G130" s="5"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="2">
@@ -4218,11 +4265,11 @@
       <c r="F131" s="3">
         <v>300</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="5" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7">
       <c r="A132" s="2">
         <v>44762</v>
       </c>
@@ -4238,6 +4285,7 @@
       <c r="E132" t="s">
         <v>23</v>
       </c>
+      <c r="G132" s="5"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="2">
@@ -4258,7 +4306,7 @@
       <c r="F133" s="3">
         <v>10788</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4281,11 +4329,11 @@
       <c r="F134" s="3">
         <v>5678</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:7">
       <c r="A135" s="2">
         <v>44763</v>
       </c>
@@ -4301,6 +4349,7 @@
       <c r="E135" t="s">
         <v>229</v>
       </c>
+      <c r="G135" s="5"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="2">
@@ -4321,7 +4370,7 @@
       <c r="F136" s="3">
         <v>6400</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="5" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4344,11 +4393,11 @@
       <c r="F137" s="3">
         <v>3146</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:7">
       <c r="A138" s="2">
         <v>44763</v>
       </c>
@@ -4367,8 +4416,9 @@
       <c r="F138" s="3">
         <v>5755</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="2">
         <v>44764</v>
       </c>
@@ -4384,8 +4434,9 @@
       <c r="E139" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="G139" s="5"/>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="2">
         <v>44764</v>
       </c>
@@ -4401,6 +4452,7 @@
       <c r="E140" t="s">
         <v>229</v>
       </c>
+      <c r="G140" s="5"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="2">
@@ -4421,11 +4473,11 @@
       <c r="F141" s="3">
         <v>1772</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:7">
       <c r="A142" s="2">
         <v>44764</v>
       </c>
@@ -4444,6 +4496,7 @@
       <c r="F142" s="3">
         <v>10260</v>
       </c>
+      <c r="G142" s="5"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="2">
@@ -4464,7 +4517,7 @@
       <c r="F143" s="3">
         <v>466</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4487,8 +4540,108 @@
       <c r="F144" s="3">
         <v>11583</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="5" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B145" t="s">
+        <v>272</v>
+      </c>
+      <c r="C145" t="s">
+        <v>273</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+      <c r="F145" s="3">
+        <v>11717</v>
+      </c>
+      <c r="G145" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B146" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" t="s">
+        <v>128</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B147" t="s">
+        <v>276</v>
+      </c>
+      <c r="C147" t="s">
+        <v>261</v>
+      </c>
+      <c r="D147" t="s">
+        <v>37</v>
+      </c>
+      <c r="E147" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B148" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148" t="s">
+        <v>277</v>
+      </c>
+      <c r="E148" t="s">
+        <v>28</v>
+      </c>
+      <c r="F148" s="3">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>44765</v>
+      </c>
+      <c r="B149" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" t="s">
+        <v>278</v>
+      </c>
+      <c r="D149" t="s">
+        <v>37</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+      <c r="F149" s="3">
+        <v>24000</v>
+      </c>
+      <c r="G149" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="295">
   <si>
     <t>DATE</t>
   </si>
@@ -853,6 +853,54 @@
   </si>
   <si>
     <t>ETIOS LIVA</t>
+  </si>
+  <si>
+    <t>KA 19  MB 9769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN 07 34 7888 </t>
+  </si>
+  <si>
+    <t>H CITY</t>
+  </si>
+  <si>
+    <t>KL 05 AP 981</t>
+  </si>
+  <si>
+    <t>KWID</t>
+  </si>
+  <si>
+    <t>CARD</t>
+  </si>
+  <si>
+    <t>KA 04 MN 7210</t>
+  </si>
+  <si>
+    <t>FIESTA</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>TN 12 A 5441</t>
+  </si>
+  <si>
+    <t>SANTRO</t>
+  </si>
+  <si>
+    <t>KA 01 MN 8809</t>
+  </si>
+  <si>
+    <t>GRAND I10</t>
+  </si>
+  <si>
+    <t>P PAY</t>
+  </si>
+  <si>
+    <t>KA 01 MN 9272</t>
+  </si>
+  <si>
+    <t>SWIFT DZIRE</t>
   </si>
 </sst>
 </file>
@@ -861,11 +909,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -876,16 +924,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -899,6 +947,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -907,7 +963,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -921,23 +991,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -953,18 +1023,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,45 +1053,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1029,19 +1077,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,37 +1107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,7 +1125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,43 +1149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,13 +1167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,7 +1185,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,7 +1215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,13 +1233,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,6 +1268,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1262,41 +1334,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1314,6 +1351,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1323,7 +1371,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1344,127 +1392,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1473,9 +1521,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1827,10 +1875,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4642,6 +4690,155 @@
       </c>
       <c r="G149" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B150" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150" t="s">
+        <v>142</v>
+      </c>
+      <c r="E150" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G150" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B151" t="s">
+        <v>280</v>
+      </c>
+      <c r="C151" t="s">
+        <v>281</v>
+      </c>
+      <c r="D151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G151" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" t="s">
+        <v>283</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="3">
+        <v>4907</v>
+      </c>
+      <c r="G152" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B153" t="s">
+        <v>285</v>
+      </c>
+      <c r="C153" t="s">
+        <v>286</v>
+      </c>
+      <c r="D153" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153" s="3">
+        <v>1170</v>
+      </c>
+      <c r="G153" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B154" t="s">
+        <v>288</v>
+      </c>
+      <c r="C154" t="s">
+        <v>289</v>
+      </c>
+      <c r="D154" t="s">
+        <v>37</v>
+      </c>
+      <c r="E154" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B155" t="s">
+        <v>290</v>
+      </c>
+      <c r="C155" t="s">
+        <v>291</v>
+      </c>
+      <c r="D155" t="s">
+        <v>142</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G155" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B156" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" t="s">
+        <v>294</v>
+      </c>
+      <c r="D156" t="s">
+        <v>142</v>
+      </c>
+      <c r="E156" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="301">
   <si>
     <t>DATE</t>
   </si>
@@ -901,6 +901,24 @@
   </si>
   <si>
     <t>SWIFT DZIRE</t>
+  </si>
+  <si>
+    <t>KA 03 MU 4876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA 04 MV 1904 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I20 </t>
+  </si>
+  <si>
+    <t>LED LIGHT CHANGE</t>
+  </si>
+  <si>
+    <t>KA 19 MB 9769</t>
+  </si>
+  <si>
+    <t>CASH   P PAY</t>
   </si>
 </sst>
 </file>
@@ -908,17 +926,48 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -932,16 +981,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,10 +1040,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -976,38 +1062,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1029,44 +1085,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1077,25 +1095,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,91 +1107,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1209,7 +1143,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,19 +1245,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,13 +1257,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,9 +1291,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,6 +1311,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,22 +1358,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,171 +1386,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1521,9 +1539,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1875,10 +1893,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4839,6 +4857,89 @@
       </c>
       <c r="E156" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B157" t="s">
+        <v>249</v>
+      </c>
+      <c r="C157" t="s">
+        <v>149</v>
+      </c>
+      <c r="D157" t="s">
+        <v>37</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1260</v>
+      </c>
+      <c r="G157" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B158" t="s">
+        <v>295</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" t="s">
+        <v>224</v>
+      </c>
+      <c r="E158" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B159" t="s">
+        <v>296</v>
+      </c>
+      <c r="C159" t="s">
+        <v>297</v>
+      </c>
+      <c r="D159" t="s">
+        <v>298</v>
+      </c>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159" s="3">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B160" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" t="s">
+        <v>142</v>
+      </c>
+      <c r="E160" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G160" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="314">
   <si>
     <t>DATE</t>
   </si>
@@ -919,6 +919,45 @@
   </si>
   <si>
     <t>CASH   P PAY</t>
+  </si>
+  <si>
+    <t>KA 03 MR 3864</t>
+  </si>
+  <si>
+    <t>SCORPIO</t>
+  </si>
+  <si>
+    <t>KA 03 MS 1179</t>
+  </si>
+  <si>
+    <t>KA 03 MZ 9550</t>
+  </si>
+  <si>
+    <t>KA 01 MP 8869</t>
+  </si>
+  <si>
+    <t>JAZZ</t>
+  </si>
+  <si>
+    <t>KA 05 MM 5630</t>
+  </si>
+  <si>
+    <t>RAPID</t>
+  </si>
+  <si>
+    <t>KA 03 MW 1302</t>
+  </si>
+  <si>
+    <t>WIRING PROBLEM</t>
+  </si>
+  <si>
+    <t>KA 53 Z 4971</t>
+  </si>
+  <si>
+    <t>VISTA</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
   </si>
 </sst>
 </file>
@@ -926,12 +965,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -939,45 +978,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -990,28 +990,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,21 +1039,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,24 +1057,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,6 +1098,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,7 +1134,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,13 +1146,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,19 +1194,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,31 +1272,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,61 +1296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,24 +1309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1291,26 +1330,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,15 +1348,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,9 +1369,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1367,7 +1382,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1386,151 +1416,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1539,9 +1578,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1893,10 +1932,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4899,7 +4938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:7">
       <c r="A159" s="2">
         <v>44768</v>
       </c>
@@ -4917,6 +4956,9 @@
       </c>
       <c r="F159" s="3">
         <v>6500</v>
+      </c>
+      <c r="G159" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4940,6 +4982,203 @@
       </c>
       <c r="G160" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="2">
+        <v>44768</v>
+      </c>
+      <c r="B161" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" t="s">
+        <v>251</v>
+      </c>
+      <c r="D161" t="s">
+        <v>37</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161" s="3">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B162" t="s">
+        <v>301</v>
+      </c>
+      <c r="C162" t="s">
+        <v>302</v>
+      </c>
+      <c r="D162" t="s">
+        <v>37</v>
+      </c>
+      <c r="E162" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B163" t="s">
+        <v>303</v>
+      </c>
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" t="s">
+        <v>42</v>
+      </c>
+      <c r="E163" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B164" t="s">
+        <v>304</v>
+      </c>
+      <c r="C164" t="s">
+        <v>44</v>
+      </c>
+      <c r="D164" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B165" t="s">
+        <v>305</v>
+      </c>
+      <c r="C165" t="s">
+        <v>306</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B166" t="s">
+        <v>307</v>
+      </c>
+      <c r="C166" t="s">
+        <v>308</v>
+      </c>
+      <c r="D166" t="s">
+        <v>142</v>
+      </c>
+      <c r="E166" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166" s="3">
+        <v>2844</v>
+      </c>
+      <c r="G166" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B167" t="s">
+        <v>309</v>
+      </c>
+      <c r="C167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D167" t="s">
+        <v>310</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1770</v>
+      </c>
+      <c r="G167" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B168" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" t="s">
+        <v>261</v>
+      </c>
+      <c r="D168" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168" s="3">
+        <v>14599</v>
+      </c>
+      <c r="G168" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B169" t="s">
+        <v>311</v>
+      </c>
+      <c r="C169" t="s">
+        <v>312</v>
+      </c>
+      <c r="D169" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>44769</v>
+      </c>
+      <c r="B170" t="s">
+        <v>295</v>
+      </c>
+      <c r="C170" t="s">
+        <v>18</v>
+      </c>
+      <c r="D170" t="s">
+        <v>146</v>
+      </c>
+      <c r="E170" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170" s="3">
+        <v>6124</v>
+      </c>
+      <c r="G170" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="327">
   <si>
     <t>DATE</t>
   </si>
@@ -958,6 +958,45 @@
   </si>
   <si>
     <t>CREDIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TN 49 9909 </t>
+  </si>
+  <si>
+    <t>GPAY</t>
+  </si>
+  <si>
+    <t>KA 51 MD 8702</t>
+  </si>
+  <si>
+    <t>CHEV SAIL</t>
+  </si>
+  <si>
+    <t>KA 51 AA 8988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PY 01 BL 1480 </t>
+  </si>
+  <si>
+    <t>XYLO</t>
+  </si>
+  <si>
+    <t>KA 03 NE 7311</t>
+  </si>
+  <si>
+    <t>KA 01 MN 7586</t>
+  </si>
+  <si>
+    <t>WIPER BLADE SELES</t>
+  </si>
+  <si>
+    <t>DL 10 CA 8682</t>
+  </si>
+  <si>
+    <t>KA 03 NJ 1982</t>
+  </si>
+  <si>
+    <t>TN 07 BY 7888</t>
   </si>
 </sst>
 </file>
@@ -965,12 +1004,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -981,16 +1020,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1004,15 +1050,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,6 +1076,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1051,25 +1099,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1082,7 +1114,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,29 +1144,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1134,7 +1173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1146,13 +1197,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,115 +1299,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,7 +1311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,7 +1341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,15 +1364,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1348,6 +1378,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,11 +1423,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,21 +1435,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,157 +1456,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1578,9 +1617,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1932,10 +1971,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5179,6 +5218,212 @@
       </c>
       <c r="G170" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B171" t="s">
+        <v>314</v>
+      </c>
+      <c r="C171" t="s">
+        <v>306</v>
+      </c>
+      <c r="D171" t="s">
+        <v>142</v>
+      </c>
+      <c r="E171" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171" s="3">
+        <v>500</v>
+      </c>
+      <c r="G171" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B172" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" t="s">
+        <v>317</v>
+      </c>
+      <c r="D172" t="s">
+        <v>142</v>
+      </c>
+      <c r="E172" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B173" t="s">
+        <v>318</v>
+      </c>
+      <c r="C173" t="s">
+        <v>151</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B174" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" t="s">
+        <v>42</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B175" t="s">
+        <v>321</v>
+      </c>
+      <c r="C175" t="s">
+        <v>151</v>
+      </c>
+      <c r="D175" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B176" t="s">
+        <v>322</v>
+      </c>
+      <c r="C176" t="s">
+        <v>306</v>
+      </c>
+      <c r="D176" t="s">
+        <v>323</v>
+      </c>
+      <c r="E176" t="s">
+        <v>28</v>
+      </c>
+      <c r="F176" s="3">
+        <v>776</v>
+      </c>
+      <c r="G176" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B177" t="s">
+        <v>324</v>
+      </c>
+      <c r="C177" t="s">
+        <v>98</v>
+      </c>
+      <c r="D177" t="s">
+        <v>67</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+      <c r="F177" s="3">
+        <v>400</v>
+      </c>
+      <c r="G177" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B178" t="s">
+        <v>267</v>
+      </c>
+      <c r="C178" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178" s="3">
+        <v>9583</v>
+      </c>
+      <c r="G178" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B179" t="s">
+        <v>325</v>
+      </c>
+      <c r="C179" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1528</v>
+      </c>
+      <c r="G179" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B180" t="s">
+        <v>326</v>
+      </c>
+      <c r="C180" t="s">
+        <v>213</v>
+      </c>
+      <c r="D180" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G180" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="337">
   <si>
     <t>DATE</t>
   </si>
@@ -997,6 +997,36 @@
   </si>
   <si>
     <t>TN 07 BY 7888</t>
+  </si>
+  <si>
+    <t>S DZIRE</t>
+  </si>
+  <si>
+    <t>KA 51 MH 0677</t>
+  </si>
+  <si>
+    <t>HANDLE CHANGE            WW</t>
+  </si>
+  <si>
+    <t>KA 01 MP 7801</t>
+  </si>
+  <si>
+    <t>KA 51 MN 3547</t>
+  </si>
+  <si>
+    <t>KA 03 MP 8093</t>
+  </si>
+  <si>
+    <t>GC / POLISHING</t>
+  </si>
+  <si>
+    <t>KA 51 MB 5984</t>
+  </si>
+  <si>
+    <t>KA51ML8324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WORK DONE </t>
   </si>
 </sst>
 </file>
@@ -1004,12 +1034,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1020,11 +1050,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1036,17 +1065,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,25 +1079,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,14 +1112,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1114,7 +1143,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,14 +1158,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1151,7 +1181,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1203,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,13 +1293,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,145 +1365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1353,7 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,6 +1394,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1386,7 +1440,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1402,39 +1456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,151 +1485,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1617,9 +1647,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1971,10 +2001,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G180"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+      <selection activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5424,6 +5454,149 @@
       </c>
       <c r="G180" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B181" t="s">
+        <v>303</v>
+      </c>
+      <c r="C181" t="s">
+        <v>327</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181" s="3">
+        <v>12541</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B182" t="s">
+        <v>328</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>329</v>
+      </c>
+      <c r="E182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B183" t="s">
+        <v>330</v>
+      </c>
+      <c r="C183" t="s">
+        <v>213</v>
+      </c>
+      <c r="D183" t="s">
+        <v>138</v>
+      </c>
+      <c r="E183" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183" s="3">
+        <v>4274</v>
+      </c>
+      <c r="G183" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B184" t="s">
+        <v>331</v>
+      </c>
+      <c r="C184" t="s">
+        <v>149</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184" s="3">
+        <v>5960</v>
+      </c>
+      <c r="G184" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B185" t="s">
+        <v>332</v>
+      </c>
+      <c r="C185" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" t="s">
+        <v>333</v>
+      </c>
+      <c r="E185" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B186" t="s">
+        <v>334</v>
+      </c>
+      <c r="C186" t="s">
+        <v>207</v>
+      </c>
+      <c r="D186" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186" s="3">
+        <v>800</v>
+      </c>
+      <c r="G186" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B187" t="s">
+        <v>335</v>
+      </c>
+      <c r="C187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" t="s">
+        <v>42</v>
+      </c>
+      <c r="E187" t="s">
+        <v>336</v>
+      </c>
+      <c r="F187" s="3">
+        <v>944</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="344">
   <si>
     <t>DATE</t>
   </si>
@@ -1027,6 +1027,27 @@
   </si>
   <si>
     <t xml:space="preserve">WORK DONE </t>
+  </si>
+  <si>
+    <t>INDICA VISTA</t>
+  </si>
+  <si>
+    <t>TN 38 BA 2353</t>
+  </si>
+  <si>
+    <t>TS 11 EC 6130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC LEAKAGE PROBLEM </t>
+  </si>
+  <si>
+    <t>KA 51 MD 0287</t>
+  </si>
+  <si>
+    <t>DL 9 CX 5183</t>
+  </si>
+  <si>
+    <t>SX4</t>
   </si>
 </sst>
 </file>
@@ -1034,12 +1055,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1051,6 +1072,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1058,14 +1093,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1079,17 +1107,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,23 +1177,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1174,13 +1202,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1188,7 +1209,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,19 +1224,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,55 +1314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,7 +1344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,73 +1380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1394,6 +1415,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1446,21 +1502,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1474,171 +1515,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1647,9 +1668,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2001,10 +2022,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="G185" sqref="G185"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5539,7 +5560,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:7">
       <c r="A185" s="2">
         <v>44771</v>
       </c>
@@ -5553,7 +5574,13 @@
         <v>333</v>
       </c>
       <c r="E185" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="F185" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G185" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5579,7 +5606,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:7">
       <c r="A187" s="2">
         <v>44771</v>
       </c>
@@ -5597,6 +5624,198 @@
       </c>
       <c r="F187" s="3">
         <v>944</v>
+      </c>
+      <c r="G187" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>44771</v>
+      </c>
+      <c r="B188" t="s">
+        <v>311</v>
+      </c>
+      <c r="C188" t="s">
+        <v>337</v>
+      </c>
+      <c r="D188" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G188" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B189" t="s">
+        <v>288</v>
+      </c>
+      <c r="C189" t="s">
+        <v>289</v>
+      </c>
+      <c r="D189" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1098</v>
+      </c>
+      <c r="G189" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B190" t="s">
+        <v>338</v>
+      </c>
+      <c r="C190" t="s">
+        <v>286</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B191" t="s">
+        <v>339</v>
+      </c>
+      <c r="C191" t="s">
+        <v>215</v>
+      </c>
+      <c r="D191" t="s">
+        <v>340</v>
+      </c>
+      <c r="E191" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191" s="3">
+        <v>300</v>
+      </c>
+      <c r="G191" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B192" t="s">
+        <v>341</v>
+      </c>
+      <c r="C192" t="s">
+        <v>12</v>
+      </c>
+      <c r="D192" t="s">
+        <v>59</v>
+      </c>
+      <c r="E192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B193" t="s">
+        <v>342</v>
+      </c>
+      <c r="C193" t="s">
+        <v>343</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
+        <v>229</v>
+      </c>
+      <c r="F193" s="3">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B194" t="s">
+        <v>316</v>
+      </c>
+      <c r="C194" t="s">
+        <v>317</v>
+      </c>
+      <c r="D194" t="s">
+        <v>277</v>
+      </c>
+      <c r="E194" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194" s="3">
+        <v>2660</v>
+      </c>
+      <c r="G194" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B195" t="s">
+        <v>328</v>
+      </c>
+      <c r="C195" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" t="s">
+        <v>329</v>
+      </c>
+      <c r="E195" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195" s="3">
+        <v>1701</v>
+      </c>
+      <c r="G195" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="2">
+        <v>44772</v>
+      </c>
+      <c r="B196" t="s">
+        <v>319</v>
+      </c>
+      <c r="C196" t="s">
+        <v>320</v>
+      </c>
+      <c r="D196" t="s">
+        <v>142</v>
+      </c>
+      <c r="E196" t="s">
+        <v>229</v>
+      </c>
+      <c r="F196" s="3">
+        <v>5546</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="353">
   <si>
     <t>DATE</t>
   </si>
@@ -1048,6 +1048,33 @@
   </si>
   <si>
     <t>SX4</t>
+  </si>
+  <si>
+    <t>KA 03 MW 3617</t>
+  </si>
+  <si>
+    <t>XCENT</t>
+  </si>
+  <si>
+    <t>KA 51 MB 4552</t>
+  </si>
+  <si>
+    <t>SUSPENSION</t>
+  </si>
+  <si>
+    <t>KA 53 MD 9553</t>
+  </si>
+  <si>
+    <t>KL 01 CF 1995</t>
+  </si>
+  <si>
+    <t>KA 03 MT 2522</t>
+  </si>
+  <si>
+    <t>KA 53 MB 1800</t>
+  </si>
+  <si>
+    <t>SCALA</t>
   </si>
 </sst>
 </file>
@@ -1056,9 +1083,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
@@ -1071,15 +1098,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,22 +1114,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,22 +1131,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1161,6 +1159,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1185,6 +1190,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1200,7 +1227,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1208,8 +1234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,7 +1251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,13 +1263,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,67 +1341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,7 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,25 +1389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,25 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,41 +1442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1501,6 +1493,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1515,19 +1533,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1536,130 +1563,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2022,10 +2049,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="F197" sqref="F197"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5816,6 +5843,126 @@
       </c>
       <c r="F196" s="3">
         <v>5546</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B197" t="s">
+        <v>344</v>
+      </c>
+      <c r="C197" t="s">
+        <v>345</v>
+      </c>
+      <c r="D197" t="s">
+        <v>138</v>
+      </c>
+      <c r="E197" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B198" t="s">
+        <v>346</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" t="s">
+        <v>347</v>
+      </c>
+      <c r="E198" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B199" t="s">
+        <v>348</v>
+      </c>
+      <c r="C199" t="s">
+        <v>281</v>
+      </c>
+      <c r="D199" t="s">
+        <v>90</v>
+      </c>
+      <c r="E199" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199" s="3">
+        <v>2726</v>
+      </c>
+      <c r="G199" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B200" t="s">
+        <v>349</v>
+      </c>
+      <c r="C200" t="s">
+        <v>149</v>
+      </c>
+      <c r="D200" t="s">
+        <v>85</v>
+      </c>
+      <c r="E200" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200" s="3">
+        <v>2360</v>
+      </c>
+      <c r="G200" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B201" t="s">
+        <v>350</v>
+      </c>
+      <c r="C201" t="s">
+        <v>163</v>
+      </c>
+      <c r="D201" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B202" t="s">
+        <v>351</v>
+      </c>
+      <c r="C202" t="s">
+        <v>352</v>
+      </c>
+      <c r="D202" t="s">
+        <v>85</v>
+      </c>
+      <c r="E202" t="s">
+        <v>28</v>
+      </c>
+      <c r="F202" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G202" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="358">
   <si>
     <t>DATE</t>
   </si>
@@ -1075,6 +1075,21 @@
   </si>
   <si>
     <t>SCALA</t>
+  </si>
+  <si>
+    <t>KA 05 MY 1985</t>
+  </si>
+  <si>
+    <t>KL 64          8697</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>KA 01 MJ 3710</t>
+  </si>
+  <si>
+    <t>KA35N6225</t>
   </si>
 </sst>
 </file>
@@ -1082,12 +1097,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1095,6 +1110,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1107,22 +1137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1137,10 +1152,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1156,13 +1201,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1182,38 +1220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,13 +1236,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1251,12 +1266,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1269,7 +1278,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,19 +1308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,19 +1338,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1329,7 +1362,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,13 +1374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,43 +1392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,25 +1410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1442,6 +1457,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1493,32 +1523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1536,6 +1540,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1545,7 +1560,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1554,139 +1575,133 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1695,9 +1710,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2049,10 +2064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+      <selection activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5825,7 +5840,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:7">
       <c r="A196" s="2">
         <v>44772</v>
       </c>
@@ -5843,6 +5858,9 @@
       </c>
       <c r="F196" s="3">
         <v>5546</v>
+      </c>
+      <c r="G196" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5963,6 +5981,126 @@
       </c>
       <c r="G202" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B203" t="s">
+        <v>353</v>
+      </c>
+      <c r="C203" t="s">
+        <v>87</v>
+      </c>
+      <c r="D203" t="s">
+        <v>138</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B204" t="s">
+        <v>354</v>
+      </c>
+      <c r="C204" t="s">
+        <v>355</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B205" t="s">
+        <v>356</v>
+      </c>
+      <c r="C205" t="s">
+        <v>92</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B206" t="s">
+        <v>344</v>
+      </c>
+      <c r="C206" t="s">
+        <v>345</v>
+      </c>
+      <c r="D206" t="s">
+        <v>138</v>
+      </c>
+      <c r="E206" t="s">
+        <v>28</v>
+      </c>
+      <c r="F206" s="3">
+        <v>3513</v>
+      </c>
+      <c r="G206" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B207" t="s">
+        <v>338</v>
+      </c>
+      <c r="C207" t="s">
+        <v>286</v>
+      </c>
+      <c r="D207" t="s">
+        <v>142</v>
+      </c>
+      <c r="E207" t="s">
+        <v>28</v>
+      </c>
+      <c r="F207" s="3">
+        <v>42617</v>
+      </c>
+      <c r="G207" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>44775</v>
+      </c>
+      <c r="B208" t="s">
+        <v>357</v>
+      </c>
+      <c r="C208" t="s">
+        <v>156</v>
+      </c>
+      <c r="D208" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" t="s">
+        <v>229</v>
+      </c>
+      <c r="F208" s="3">
+        <v>11918</v>
+      </c>
+      <c r="G208" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="365">
   <si>
     <t>DATE</t>
   </si>
@@ -1090,6 +1090,27 @@
   </si>
   <si>
     <t>KA35N6225</t>
+  </si>
+  <si>
+    <t>KA 03 ML 2141</t>
+  </si>
+  <si>
+    <t>KA 03 MU 7732</t>
+  </si>
+  <si>
+    <t>KA 03 MZ 1480</t>
+  </si>
+  <si>
+    <t>SKODA RAPID</t>
+  </si>
+  <si>
+    <t>KA03MY1985</t>
+  </si>
+  <si>
+    <t>XUV500</t>
+  </si>
+  <si>
+    <t>KA03ML2141</t>
   </si>
 </sst>
 </file>
@@ -1097,11 +1118,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
@@ -1113,6 +1134,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1121,6 +1150,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1128,9 +1158,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1153,14 +1182,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1172,20 +1193,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1220,8 +1227,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,22 +1258,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1272,7 +1293,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,13 +1365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,49 +1401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,13 +1419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,13 +1437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1410,43 +1461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,17 +1481,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1514,11 +1540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,17 +1572,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1560,10 +1581,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1572,136 +1596,133 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1710,7 +1731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2064,10 +2085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="G208" sqref="G208"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6101,6 +6122,155 @@
       </c>
       <c r="G208" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B209" t="s">
+        <v>358</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B210" t="s">
+        <v>359</v>
+      </c>
+      <c r="C210" t="s">
+        <v>195</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B211" t="s">
+        <v>360</v>
+      </c>
+      <c r="C211" t="s">
+        <v>361</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>28</v>
+      </c>
+      <c r="F211" s="3">
+        <v>14120</v>
+      </c>
+      <c r="G211" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B212" t="s">
+        <v>356</v>
+      </c>
+      <c r="C212" t="s">
+        <v>92</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>28</v>
+      </c>
+      <c r="F212" s="3">
+        <v>4065</v>
+      </c>
+      <c r="G212" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B213" t="s">
+        <v>362</v>
+      </c>
+      <c r="C213" t="s">
+        <v>363</v>
+      </c>
+      <c r="D213" t="s">
+        <v>138</v>
+      </c>
+      <c r="E213" t="s">
+        <v>28</v>
+      </c>
+      <c r="F213" s="3">
+        <v>22742</v>
+      </c>
+      <c r="G213" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B214" t="s">
+        <v>364</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>28</v>
+      </c>
+      <c r="F214" s="3">
+        <v>6769</v>
+      </c>
+      <c r="G214" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B215" t="s">
+        <v>357</v>
+      </c>
+      <c r="C215" t="s">
+        <v>156</v>
+      </c>
+      <c r="D215" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" t="s">
+        <v>28</v>
+      </c>
+      <c r="F215" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G215" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="401">
   <si>
     <t>DATE</t>
   </si>
@@ -1111,6 +1111,114 @@
   </si>
   <si>
     <t>KA03ML2141</t>
+  </si>
+  <si>
+    <t>KA 01 MG 3419</t>
+  </si>
+  <si>
+    <t>TIE MEMBER                INSU</t>
+  </si>
+  <si>
+    <t>KA 53 MA 4313</t>
+  </si>
+  <si>
+    <t>GENERAL CHECKUP         WW</t>
+  </si>
+  <si>
+    <t>MH 14 CK 5854</t>
+  </si>
+  <si>
+    <t>KA03NE7311</t>
+  </si>
+  <si>
+    <t>KA03MU7732</t>
+  </si>
+  <si>
+    <t>KA03MT2522</t>
+  </si>
+  <si>
+    <t>KA01MN9272</t>
+  </si>
+  <si>
+    <t>LK648697</t>
+  </si>
+  <si>
+    <t>KA53MC0494</t>
+  </si>
+  <si>
+    <t>KA03MR907</t>
+  </si>
+  <si>
+    <t>KA04MS9197</t>
+  </si>
+  <si>
+    <t>ABS SENSOR</t>
+  </si>
+  <si>
+    <t>KA53MA2760</t>
+  </si>
+  <si>
+    <t>KA53MA4313</t>
+  </si>
+  <si>
+    <t>KA04MR6014</t>
+  </si>
+  <si>
+    <t>KA03MZ9550</t>
+  </si>
+  <si>
+    <t>KA51MB4552</t>
+  </si>
+  <si>
+    <t>PY01CC6847</t>
+  </si>
+  <si>
+    <t>DL5CN9218</t>
+  </si>
+  <si>
+    <t>KA53MQ8210</t>
+  </si>
+  <si>
+    <t>KA53MH7954</t>
+  </si>
+  <si>
+    <t>KA53Z4971</t>
+  </si>
+  <si>
+    <t>KA01MR8095</t>
+  </si>
+  <si>
+    <t>MH10AN9645</t>
+  </si>
+  <si>
+    <t>KA51MD0287</t>
+  </si>
+  <si>
+    <t>KA03MM7229</t>
+  </si>
+  <si>
+    <t>KA04MK7854</t>
+  </si>
+  <si>
+    <t>KA03MJ4271</t>
+  </si>
+  <si>
+    <t>KA03ND9387</t>
+  </si>
+  <si>
+    <t>KA03MQ0016</t>
+  </si>
+  <si>
+    <t>KA51MB2926</t>
+  </si>
+  <si>
+    <t>KA01MG7422</t>
+  </si>
+  <si>
+    <t>KA05MS4170</t>
+  </si>
+  <si>
+    <t>HORN CHANGE</t>
   </si>
 </sst>
 </file>
@@ -1118,12 +1226,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1134,23 +1242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1159,7 +1257,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1196,13 +1302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1211,9 +1310,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1227,16 +1341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,6 +1364,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1287,13 +1395,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,67 +1479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,31 +1515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,13 +1533,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,25 +1557,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1481,22 +1589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,17 +1643,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1569,19 +1686,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1593,136 +1704,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1731,9 +1839,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2085,15 +2193,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="H248" sqref="H248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.2857142857143" style="2"/>
+    <col min="1" max="1" width="12.7142857142857" style="2"/>
     <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="25.4285714285714" customWidth="1"/>
@@ -6271,6 +6379,723 @@
       </c>
       <c r="G215" t="s">
         <v>284</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B216" t="s">
+        <v>365</v>
+      </c>
+      <c r="C216" t="s">
+        <v>15</v>
+      </c>
+      <c r="D216" t="s">
+        <v>366</v>
+      </c>
+      <c r="E216" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B217" t="s">
+        <v>367</v>
+      </c>
+      <c r="C217" t="s">
+        <v>116</v>
+      </c>
+      <c r="D217" t="s">
+        <v>368</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B218" t="s">
+        <v>369</v>
+      </c>
+      <c r="C218" t="s">
+        <v>81</v>
+      </c>
+      <c r="D218" t="s">
+        <v>42</v>
+      </c>
+      <c r="E218" t="s">
+        <v>28</v>
+      </c>
+      <c r="F218" s="3">
+        <v>2589</v>
+      </c>
+      <c r="G218" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B219" t="s">
+        <v>370</v>
+      </c>
+      <c r="C219" t="s">
+        <v>151</v>
+      </c>
+      <c r="D219" t="s">
+        <v>37</v>
+      </c>
+      <c r="E219" t="s">
+        <v>229</v>
+      </c>
+      <c r="F219" s="3">
+        <v>18880</v>
+      </c>
+      <c r="G219" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B220" t="s">
+        <v>371</v>
+      </c>
+      <c r="C220" t="s">
+        <v>195</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>28</v>
+      </c>
+      <c r="F220" s="3">
+        <v>24819</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B221" t="s">
+        <v>372</v>
+      </c>
+      <c r="C221" t="s">
+        <v>278</v>
+      </c>
+      <c r="D221" t="s">
+        <v>37</v>
+      </c>
+      <c r="E221" t="s">
+        <v>229</v>
+      </c>
+      <c r="F221" s="3">
+        <v>14641</v>
+      </c>
+      <c r="G221" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B222" t="s">
+        <v>373</v>
+      </c>
+      <c r="C222" t="s">
+        <v>294</v>
+      </c>
+      <c r="D222" t="s">
+        <v>37</v>
+      </c>
+      <c r="E222" t="s">
+        <v>336</v>
+      </c>
+      <c r="F222" s="3">
+        <v>7375</v>
+      </c>
+      <c r="G222" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B223" t="s">
+        <v>374</v>
+      </c>
+      <c r="C223" t="s">
+        <v>355</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>28</v>
+      </c>
+      <c r="F223" s="3">
+        <v>7987</v>
+      </c>
+      <c r="G223" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B224" t="s">
+        <v>375</v>
+      </c>
+      <c r="C224" t="s">
+        <v>144</v>
+      </c>
+      <c r="D224" t="s">
+        <v>142</v>
+      </c>
+      <c r="E224" t="s">
+        <v>28</v>
+      </c>
+      <c r="F224" s="3">
+        <v>6250</v>
+      </c>
+      <c r="G224" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B225" t="s">
+        <v>376</v>
+      </c>
+      <c r="C225" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225" t="s">
+        <v>42</v>
+      </c>
+      <c r="E225" t="s">
+        <v>28</v>
+      </c>
+      <c r="F225" s="3">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B226" t="s">
+        <v>377</v>
+      </c>
+      <c r="C226" t="s">
+        <v>308</v>
+      </c>
+      <c r="D226" t="s">
+        <v>378</v>
+      </c>
+      <c r="E226" t="s">
+        <v>28</v>
+      </c>
+      <c r="F226" s="3">
+        <v>5562</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B227" t="s">
+        <v>379</v>
+      </c>
+      <c r="C227" t="s">
+        <v>355</v>
+      </c>
+      <c r="D227" t="s">
+        <v>142</v>
+      </c>
+      <c r="E227" t="s">
+        <v>28</v>
+      </c>
+      <c r="F227" s="3">
+        <v>8584</v>
+      </c>
+      <c r="G227" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B228" t="s">
+        <v>380</v>
+      </c>
+      <c r="C228" t="s">
+        <v>116</v>
+      </c>
+      <c r="D228" t="s">
+        <v>142</v>
+      </c>
+      <c r="E228" t="s">
+        <v>28</v>
+      </c>
+      <c r="F228" s="3">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B229" t="s">
+        <v>381</v>
+      </c>
+      <c r="C229" t="s">
+        <v>156</v>
+      </c>
+      <c r="D229" t="s">
+        <v>67</v>
+      </c>
+      <c r="E229" t="s">
+        <v>28</v>
+      </c>
+      <c r="F229" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B230" t="s">
+        <v>382</v>
+      </c>
+      <c r="C230" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230" t="s">
+        <v>138</v>
+      </c>
+      <c r="E230" t="s">
+        <v>28</v>
+      </c>
+      <c r="F230" s="3">
+        <v>25265</v>
+      </c>
+      <c r="G230" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B231" t="s">
+        <v>383</v>
+      </c>
+      <c r="C231" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231" t="s">
+        <v>142</v>
+      </c>
+      <c r="E231" t="s">
+        <v>28</v>
+      </c>
+      <c r="F231" s="3">
+        <v>23380</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B232" t="s">
+        <v>384</v>
+      </c>
+      <c r="C232" t="s">
+        <v>89</v>
+      </c>
+      <c r="D232" t="s">
+        <v>298</v>
+      </c>
+      <c r="E232" t="s">
+        <v>28</v>
+      </c>
+      <c r="F232" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G232" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B233" t="s">
+        <v>385</v>
+      </c>
+      <c r="C233" t="s">
+        <v>102</v>
+      </c>
+      <c r="D233" t="s">
+        <v>138</v>
+      </c>
+      <c r="E233" t="s">
+        <v>28</v>
+      </c>
+      <c r="F233" s="3">
+        <v>4243</v>
+      </c>
+      <c r="G233" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B234" t="s">
+        <v>386</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234" t="s">
+        <v>37</v>
+      </c>
+      <c r="E234" t="s">
+        <v>28</v>
+      </c>
+      <c r="F234" s="3">
+        <v>162681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B235" t="s">
+        <v>387</v>
+      </c>
+      <c r="C235" t="s">
+        <v>72</v>
+      </c>
+      <c r="D235" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" t="s">
+        <v>28</v>
+      </c>
+      <c r="F235" s="3">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C236" t="s">
+        <v>337</v>
+      </c>
+      <c r="D236" t="s">
+        <v>142</v>
+      </c>
+      <c r="E236" t="s">
+        <v>28</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="2">
+        <v>44781</v>
+      </c>
+      <c r="B237" t="s">
+        <v>389</v>
+      </c>
+      <c r="C237" t="s">
+        <v>133</v>
+      </c>
+      <c r="D237" t="s">
+        <v>142</v>
+      </c>
+      <c r="E237" t="s">
+        <v>28</v>
+      </c>
+      <c r="F237" s="3">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B238" t="s">
+        <v>390</v>
+      </c>
+      <c r="C238" t="s">
+        <v>128</v>
+      </c>
+      <c r="D238" t="s">
+        <v>37</v>
+      </c>
+      <c r="E238" t="s">
+        <v>229</v>
+      </c>
+      <c r="F238" s="3">
+        <v>14333</v>
+      </c>
+      <c r="G238" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B239" t="s">
+        <v>391</v>
+      </c>
+      <c r="C239" t="s">
+        <v>12</v>
+      </c>
+      <c r="D239" t="s">
+        <v>142</v>
+      </c>
+      <c r="E239" t="s">
+        <v>28</v>
+      </c>
+      <c r="F239" s="3">
+        <v>49087</v>
+      </c>
+      <c r="G239" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B240" t="s">
+        <v>392</v>
+      </c>
+      <c r="C240" t="s">
+        <v>81</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>28</v>
+      </c>
+      <c r="F240" s="3">
+        <v>2733</v>
+      </c>
+      <c r="G240" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B241" t="s">
+        <v>393</v>
+      </c>
+      <c r="C241" t="s">
+        <v>156</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>28</v>
+      </c>
+      <c r="F241" s="3">
+        <v>22576</v>
+      </c>
+      <c r="G241" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B242" t="s">
+        <v>394</v>
+      </c>
+      <c r="C242" t="s">
+        <v>286</v>
+      </c>
+      <c r="D242" t="s">
+        <v>42</v>
+      </c>
+      <c r="E242" t="s">
+        <v>28</v>
+      </c>
+      <c r="F242" s="3">
+        <v>944</v>
+      </c>
+      <c r="G242" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B243" t="s">
+        <v>319</v>
+      </c>
+      <c r="C243" t="s">
+        <v>320</v>
+      </c>
+      <c r="D243" t="s">
+        <v>142</v>
+      </c>
+      <c r="E243" t="s">
+        <v>28</v>
+      </c>
+      <c r="F243" s="3">
+        <v>9180</v>
+      </c>
+      <c r="G243" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="2">
+        <v>44783</v>
+      </c>
+      <c r="B244" t="s">
+        <v>395</v>
+      </c>
+      <c r="C244" t="s">
+        <v>222</v>
+      </c>
+      <c r="D244" t="s">
+        <v>138</v>
+      </c>
+      <c r="E244" t="s">
+        <v>28</v>
+      </c>
+      <c r="F244" s="3">
+        <v>5010</v>
+      </c>
+      <c r="G244" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B245" t="s">
+        <v>396</v>
+      </c>
+      <c r="C245" t="s">
+        <v>18</v>
+      </c>
+      <c r="D245" t="s">
+        <v>138</v>
+      </c>
+      <c r="E245" t="s">
+        <v>28</v>
+      </c>
+      <c r="F245" s="3">
+        <v>11026</v>
+      </c>
+      <c r="G245" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B246" t="s">
+        <v>397</v>
+      </c>
+      <c r="C246" t="s">
+        <v>355</v>
+      </c>
+      <c r="D246" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>28</v>
+      </c>
+      <c r="F246" s="3">
+        <v>18659</v>
+      </c>
+      <c r="G246" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B247" t="s">
+        <v>398</v>
+      </c>
+      <c r="C247" t="s">
+        <v>237</v>
+      </c>
+      <c r="D247" t="s">
+        <v>53</v>
+      </c>
+      <c r="E247" t="s">
+        <v>28</v>
+      </c>
+      <c r="F247" s="3">
+        <v>3875</v>
+      </c>
+      <c r="G247" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B248" t="s">
+        <v>399</v>
+      </c>
+      <c r="C248" t="s">
+        <v>63</v>
+      </c>
+      <c r="D248" t="s">
+        <v>400</v>
+      </c>
+      <c r="E248" t="s">
+        <v>28</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1340</v>
+      </c>
+      <c r="G248" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="422">
   <si>
     <t>DATE</t>
   </si>
@@ -1219,6 +1219,69 @@
   </si>
   <si>
     <t>HORN CHANGE</t>
+  </si>
+  <si>
+    <t>KA03MW7443</t>
+  </si>
+  <si>
+    <t>KL07CJ4109</t>
+  </si>
+  <si>
+    <t>TN18U0010</t>
+  </si>
+  <si>
+    <t>KA01MG3419</t>
+  </si>
+  <si>
+    <t>KA51MN5718</t>
+  </si>
+  <si>
+    <t>KA03MS0598</t>
+  </si>
+  <si>
+    <t>A-STAR</t>
+  </si>
+  <si>
+    <t>KA03AC3525</t>
+  </si>
+  <si>
+    <t>DZIRE</t>
+  </si>
+  <si>
+    <t>DL7CP8758</t>
+  </si>
+  <si>
+    <t>MOULDING ROOF CHANGE</t>
+  </si>
+  <si>
+    <t>KA03MZ4450</t>
+  </si>
+  <si>
+    <t>BREZZA</t>
+  </si>
+  <si>
+    <t>KA51MK4755</t>
+  </si>
+  <si>
+    <t>CRETA</t>
+  </si>
+  <si>
+    <t>MH43AT5184</t>
+  </si>
+  <si>
+    <t>AP16AV0759</t>
+  </si>
+  <si>
+    <t>M OMNI</t>
+  </si>
+  <si>
+    <t>KA01MR6461</t>
+  </si>
+  <si>
+    <t>120 ASTA</t>
+  </si>
+  <si>
+    <t>KA03MT2662</t>
   </si>
 </sst>
 </file>
@@ -1226,11 +1289,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
@@ -1242,8 +1305,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1251,21 +1336,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,6 +1351,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,39 +1379,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1349,16 +1402,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1372,15 +1441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1392,132 +1455,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1533,7 +1470,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,37 +1638,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1586,6 +1649,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1646,28 +1718,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1686,151 +1738,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1840,8 +1903,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2193,10 +2256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G248"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="H248" sqref="H248"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G261" sqref="G261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -7096,6 +7159,344 @@
       </c>
       <c r="G248" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B249" t="s">
+        <v>401</v>
+      </c>
+      <c r="C249" t="s">
+        <v>306</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>28</v>
+      </c>
+      <c r="F249" s="3">
+        <v>3096</v>
+      </c>
+      <c r="G249" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="2">
+        <v>44784</v>
+      </c>
+      <c r="B250" t="s">
+        <v>402</v>
+      </c>
+      <c r="C250" t="s">
+        <v>81</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>28</v>
+      </c>
+      <c r="F250" s="3">
+        <v>4950</v>
+      </c>
+      <c r="G250" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B251" t="s">
+        <v>403</v>
+      </c>
+      <c r="C251" t="s">
+        <v>207</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>28</v>
+      </c>
+      <c r="F251" s="3">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B252" t="s">
+        <v>404</v>
+      </c>
+      <c r="C252" t="s">
+        <v>15</v>
+      </c>
+      <c r="D252" t="s">
+        <v>37</v>
+      </c>
+      <c r="E252" t="s">
+        <v>229</v>
+      </c>
+      <c r="F252" s="3">
+        <v>26043</v>
+      </c>
+      <c r="G252" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B253" t="s">
+        <v>405</v>
+      </c>
+      <c r="C253" t="s">
+        <v>156</v>
+      </c>
+      <c r="D253" t="s">
+        <v>76</v>
+      </c>
+      <c r="E253" t="s">
+        <v>28</v>
+      </c>
+      <c r="F253" s="3">
+        <v>6861</v>
+      </c>
+      <c r="G253" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B254" t="s">
+        <v>406</v>
+      </c>
+      <c r="C254" t="s">
+        <v>407</v>
+      </c>
+      <c r="D254" t="s">
+        <v>37</v>
+      </c>
+      <c r="E254" t="s">
+        <v>28</v>
+      </c>
+      <c r="F254" s="3">
+        <v>5815</v>
+      </c>
+      <c r="G254" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B255" t="s">
+        <v>408</v>
+      </c>
+      <c r="C255" t="s">
+        <v>409</v>
+      </c>
+      <c r="D255" t="s">
+        <v>76</v>
+      </c>
+      <c r="E255" t="s">
+        <v>28</v>
+      </c>
+      <c r="F255" s="3">
+        <v>5479</v>
+      </c>
+      <c r="G255" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B256" t="s">
+        <v>410</v>
+      </c>
+      <c r="C256" t="s">
+        <v>15</v>
+      </c>
+      <c r="D256" t="s">
+        <v>76</v>
+      </c>
+      <c r="E256" t="s">
+        <v>28</v>
+      </c>
+      <c r="F256" s="3">
+        <v>14749</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B257" t="s">
+        <v>406</v>
+      </c>
+      <c r="C257" t="s">
+        <v>407</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>28</v>
+      </c>
+      <c r="F257" s="3">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B258" t="s">
+        <v>380</v>
+      </c>
+      <c r="C258" t="s">
+        <v>116</v>
+      </c>
+      <c r="D258" t="s">
+        <v>411</v>
+      </c>
+      <c r="E258" t="s">
+        <v>28</v>
+      </c>
+      <c r="F258" s="3">
+        <v>600</v>
+      </c>
+      <c r="G258" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="2">
+        <v>44786</v>
+      </c>
+      <c r="B259" t="s">
+        <v>412</v>
+      </c>
+      <c r="C259" t="s">
+        <v>413</v>
+      </c>
+      <c r="D259" t="s">
+        <v>76</v>
+      </c>
+      <c r="E259" t="s">
+        <v>28</v>
+      </c>
+      <c r="F259" s="3">
+        <v>20459</v>
+      </c>
+      <c r="G259" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B260" t="s">
+        <v>414</v>
+      </c>
+      <c r="C260" t="s">
+        <v>415</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" t="s">
+        <v>28</v>
+      </c>
+      <c r="F260" s="3">
+        <v>6433</v>
+      </c>
+      <c r="G260" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B261" t="s">
+        <v>416</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>28</v>
+      </c>
+      <c r="F261" s="3">
+        <v>10277</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B262" t="s">
+        <v>417</v>
+      </c>
+      <c r="C262" t="s">
+        <v>418</v>
+      </c>
+      <c r="D262" t="s">
+        <v>59</v>
+      </c>
+      <c r="E262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B263" t="s">
+        <v>419</v>
+      </c>
+      <c r="C263" t="s">
+        <v>420</v>
+      </c>
+      <c r="D263" t="s">
+        <v>59</v>
+      </c>
+      <c r="E263" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B264" t="s">
+        <v>421</v>
+      </c>
+      <c r="C264" t="s">
+        <v>18</v>
+      </c>
+      <c r="D264" t="s">
+        <v>76</v>
+      </c>
+      <c r="E264" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="449">
   <si>
     <t>DATE</t>
   </si>
@@ -1282,6 +1282,87 @@
   </si>
   <si>
     <t>KA03MT2662</t>
+  </si>
+  <si>
+    <t>KA03MP9766</t>
+  </si>
+  <si>
+    <t>MH01AX9080</t>
+  </si>
+  <si>
+    <t>TN04AC3193</t>
+  </si>
+  <si>
+    <t>KA03MN8120</t>
+  </si>
+  <si>
+    <t>KA03MV0364</t>
+  </si>
+  <si>
+    <t>SCRPIO</t>
+  </si>
+  <si>
+    <t>KA51MB1424</t>
+  </si>
+  <si>
+    <t>KA03MN9595</t>
+  </si>
+  <si>
+    <t>KA03MJ1724</t>
+  </si>
+  <si>
+    <t>COROLLA</t>
+  </si>
+  <si>
+    <t>KL07BW6057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICA </t>
+  </si>
+  <si>
+    <t>HEAD LIGHT BULB</t>
+  </si>
+  <si>
+    <t>KA03NE1061</t>
+  </si>
+  <si>
+    <t>HANDLE PROBLEM</t>
+  </si>
+  <si>
+    <t>KA01MS4265</t>
+  </si>
+  <si>
+    <t>WB20Z5652</t>
+  </si>
+  <si>
+    <t>MH14CC1351</t>
+  </si>
+  <si>
+    <t>STARTING PROBLEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA53MZ9550 </t>
+  </si>
+  <si>
+    <t>MIRROR CHANGE</t>
+  </si>
+  <si>
+    <t>CKE9802</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M-800</t>
+  </si>
+  <si>
+    <t>KA01MF7441</t>
+  </si>
+  <si>
+    <t>KA 05 MY7902</t>
+  </si>
+  <si>
+    <t>KA53MJ0986</t>
+  </si>
+  <si>
+    <t>MESH FITTING</t>
   </si>
 </sst>
 </file>
@@ -1289,11 +1370,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
@@ -1313,6 +1394,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1321,21 +1425,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1356,33 +1446,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1418,14 +1486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -1441,9 +1501,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,7 +1539,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,25 +1653,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1500,55 +1707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,85 +1719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,24 +1735,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,6 +1793,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1741,30 +1824,28 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1773,127 +1854,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1903,8 +1984,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2256,10 +2337,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G261" sqref="G261"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="G283" sqref="G283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -7497,6 +7578,404 @@
       </c>
       <c r="E264" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B265" t="s">
+        <v>422</v>
+      </c>
+      <c r="C265" t="s">
+        <v>104</v>
+      </c>
+      <c r="D265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>28</v>
+      </c>
+      <c r="F265" s="3">
+        <v>32107</v>
+      </c>
+      <c r="G265" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B266" t="s">
+        <v>423</v>
+      </c>
+      <c r="C266" t="s">
+        <v>18</v>
+      </c>
+      <c r="D266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" t="s">
+        <v>28</v>
+      </c>
+      <c r="F266" s="3">
+        <v>14229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="2">
+        <v>44789</v>
+      </c>
+      <c r="B267" t="s">
+        <v>410</v>
+      </c>
+      <c r="C267" t="s">
+        <v>15</v>
+      </c>
+      <c r="D267" t="s">
+        <v>142</v>
+      </c>
+      <c r="E267" t="s">
+        <v>28</v>
+      </c>
+      <c r="F267" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G267" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B268" t="s">
+        <v>424</v>
+      </c>
+      <c r="C268" t="s">
+        <v>81</v>
+      </c>
+      <c r="D268" t="s">
+        <v>310</v>
+      </c>
+      <c r="E268" t="s">
+        <v>28</v>
+      </c>
+      <c r="F268" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G268" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B269" t="s">
+        <v>425</v>
+      </c>
+      <c r="C269" t="s">
+        <v>156</v>
+      </c>
+      <c r="D269" t="s">
+        <v>138</v>
+      </c>
+      <c r="E269" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B270" t="s">
+        <v>426</v>
+      </c>
+      <c r="C270" t="s">
+        <v>427</v>
+      </c>
+      <c r="D270" t="s">
+        <v>138</v>
+      </c>
+      <c r="E270" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B271" t="s">
+        <v>428</v>
+      </c>
+      <c r="C271" t="s">
+        <v>104</v>
+      </c>
+      <c r="D271" t="s">
+        <v>126</v>
+      </c>
+      <c r="E271" t="s">
+        <v>28</v>
+      </c>
+      <c r="F271" s="3">
+        <v>1972</v>
+      </c>
+      <c r="G271" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B272" t="s">
+        <v>429</v>
+      </c>
+      <c r="C272" t="s">
+        <v>251</v>
+      </c>
+      <c r="D272" t="s">
+        <v>368</v>
+      </c>
+      <c r="E272" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B273" t="s">
+        <v>430</v>
+      </c>
+      <c r="C273" t="s">
+        <v>431</v>
+      </c>
+      <c r="D273" t="s">
+        <v>90</v>
+      </c>
+      <c r="E273" t="s">
+        <v>28</v>
+      </c>
+      <c r="F273" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G273" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B274" t="s">
+        <v>432</v>
+      </c>
+      <c r="C274" t="s">
+        <v>433</v>
+      </c>
+      <c r="D274" t="s">
+        <v>434</v>
+      </c>
+      <c r="E274" t="s">
+        <v>28</v>
+      </c>
+      <c r="F274" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G274" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="2">
+        <v>44790</v>
+      </c>
+      <c r="B275" t="s">
+        <v>435</v>
+      </c>
+      <c r="C275" t="s">
+        <v>44</v>
+      </c>
+      <c r="D275" t="s">
+        <v>436</v>
+      </c>
+      <c r="E275" t="s">
+        <v>28</v>
+      </c>
+      <c r="F275" s="3">
+        <v>100</v>
+      </c>
+      <c r="G275" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B276" t="s">
+        <v>437</v>
+      </c>
+      <c r="C276" t="s">
+        <v>81</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>28</v>
+      </c>
+      <c r="F276" s="3">
+        <v>3507</v>
+      </c>
+      <c r="G276" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B277" t="s">
+        <v>438</v>
+      </c>
+      <c r="C277" t="s">
+        <v>104</v>
+      </c>
+      <c r="D277" t="s">
+        <v>42</v>
+      </c>
+      <c r="E277" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B278" t="s">
+        <v>439</v>
+      </c>
+      <c r="C278" t="s">
+        <v>89</v>
+      </c>
+      <c r="D278" t="s">
+        <v>440</v>
+      </c>
+      <c r="E278" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B279" t="s">
+        <v>441</v>
+      </c>
+      <c r="C279" t="s">
+        <v>44</v>
+      </c>
+      <c r="D279" t="s">
+        <v>442</v>
+      </c>
+      <c r="E279" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B280" t="s">
+        <v>443</v>
+      </c>
+      <c r="C280" t="s">
+        <v>444</v>
+      </c>
+      <c r="D280" t="s">
+        <v>9</v>
+      </c>
+      <c r="E280" t="s">
+        <v>28</v>
+      </c>
+      <c r="F280" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G280" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B281" t="s">
+        <v>445</v>
+      </c>
+      <c r="C281" t="s">
+        <v>84</v>
+      </c>
+      <c r="D281" t="s">
+        <v>138</v>
+      </c>
+      <c r="E281" t="s">
+        <v>28</v>
+      </c>
+      <c r="F281" s="3">
+        <v>6866</v>
+      </c>
+      <c r="G281" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B282" t="s">
+        <v>446</v>
+      </c>
+      <c r="C282" t="s">
+        <v>72</v>
+      </c>
+      <c r="D282" t="s">
+        <v>37</v>
+      </c>
+      <c r="E282" t="s">
+        <v>28</v>
+      </c>
+      <c r="F282" s="3">
+        <v>8250</v>
+      </c>
+      <c r="G282" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B283" t="s">
+        <v>447</v>
+      </c>
+      <c r="C283" t="s">
+        <v>63</v>
+      </c>
+      <c r="D283" t="s">
+        <v>448</v>
+      </c>
+      <c r="E283" t="s">
+        <v>28</v>
+      </c>
+      <c r="F283" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G283" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="451">
   <si>
     <t>DATE</t>
   </si>
@@ -1363,6 +1363,12 @@
   </si>
   <si>
     <t>MESH FITTING</t>
+  </si>
+  <si>
+    <t>KA03MQ5430</t>
+  </si>
+  <si>
+    <t>I20 ASTA</t>
   </si>
 </sst>
 </file>
@@ -1370,12 +1376,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1396,14 +1402,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1417,15 +1415,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1454,6 +1469,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1478,24 +1500,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1508,23 +1514,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,7 +1557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,7 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,61 +1581,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1641,49 +1599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1701,7 +1617,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,13 +1707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,17 +1736,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1755,6 +1750,54 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,67 +1828,30 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1854,127 +1860,127 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1983,9 +1989,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2337,10 +2343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G283"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="G283" sqref="G283"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -7976,6 +7982,121 @@
       </c>
       <c r="G283" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B284" t="s">
+        <v>449</v>
+      </c>
+      <c r="C284" t="s">
+        <v>450</v>
+      </c>
+      <c r="D284" t="s">
+        <v>42</v>
+      </c>
+      <c r="E284" t="s">
+        <v>28</v>
+      </c>
+      <c r="F284" s="3">
+        <v>1487</v>
+      </c>
+      <c r="G284" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B285" t="s">
+        <v>382</v>
+      </c>
+      <c r="C285" t="s">
+        <v>44</v>
+      </c>
+      <c r="D285" t="s">
+        <v>442</v>
+      </c>
+      <c r="E285" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" s="3">
+        <v>5416</v>
+      </c>
+      <c r="G285" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B286" t="s">
+        <v>426</v>
+      </c>
+      <c r="C286" t="s">
+        <v>302</v>
+      </c>
+      <c r="D286" t="s">
+        <v>138</v>
+      </c>
+      <c r="E286" t="s">
+        <v>28</v>
+      </c>
+      <c r="F286" s="3">
+        <v>12737</v>
+      </c>
+      <c r="G286" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B287" t="s">
+        <v>449</v>
+      </c>
+      <c r="C287" t="s">
+        <v>450</v>
+      </c>
+      <c r="D287" t="s">
+        <v>368</v>
+      </c>
+      <c r="E287" t="s">
+        <v>28</v>
+      </c>
+      <c r="F287" s="3">
+        <v>1487</v>
+      </c>
+      <c r="G287" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="2">
+        <v>44792</v>
+      </c>
+      <c r="B288" t="s">
+        <v>438</v>
+      </c>
+      <c r="C288" t="s">
+        <v>104</v>
+      </c>
+      <c r="D288" t="s">
+        <v>42</v>
+      </c>
+      <c r="E288" t="s">
+        <v>28</v>
+      </c>
+      <c r="F288" s="3">
+        <v>1010</v>
+      </c>
+      <c r="G288" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="457">
   <si>
     <t>DATE</t>
   </si>
@@ -1369,6 +1369,24 @@
   </si>
   <si>
     <t>I20 ASTA</t>
+  </si>
+  <si>
+    <t>WB02AA6099</t>
+  </si>
+  <si>
+    <t>KA53MC6895</t>
+  </si>
+  <si>
+    <t>KA51MA9141</t>
+  </si>
+  <si>
+    <t>KA03MP6863</t>
+  </si>
+  <si>
+    <t>KA03NC9110</t>
+  </si>
+  <si>
+    <t>DL8CZ9531</t>
   </si>
 </sst>
 </file>
@@ -1376,12 +1394,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1392,22 +1410,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1415,32 +1417,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,6 +1449,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,15 +1501,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1521,8 +1524,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1530,7 +1534,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1545,103 +1563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,6 +1587,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1671,13 +1689,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,43 +1743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,6 +1754,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1750,54 +1783,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1828,6 +1813,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1836,19 +1830,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1857,130 +1875,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1989,9 +2007,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2343,10 +2361,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G288"/>
+  <dimension ref="A1:G294"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+      <selection activeCell="E294" sqref="E294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8097,6 +8115,117 @@
       </c>
       <c r="G288" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B289" t="s">
+        <v>451</v>
+      </c>
+      <c r="C289" t="s">
+        <v>306</v>
+      </c>
+      <c r="D289" t="s">
+        <v>37</v>
+      </c>
+      <c r="E289" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B290" t="s">
+        <v>452</v>
+      </c>
+      <c r="C290" t="s">
+        <v>273</v>
+      </c>
+      <c r="D290" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s">
+        <v>28</v>
+      </c>
+      <c r="F290" s="3">
+        <v>6948</v>
+      </c>
+      <c r="G290" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B291" t="s">
+        <v>453</v>
+      </c>
+      <c r="C291" t="s">
+        <v>104</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B292" t="s">
+        <v>454</v>
+      </c>
+      <c r="C292" t="s">
+        <v>104</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>28</v>
+      </c>
+      <c r="F292" s="3">
+        <v>8983</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B293" t="s">
+        <v>455</v>
+      </c>
+      <c r="C293" t="s">
+        <v>149</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="2">
+        <v>44793</v>
+      </c>
+      <c r="B294" t="s">
+        <v>456</v>
+      </c>
+      <c r="C294" t="s">
+        <v>302</v>
+      </c>
+      <c r="D294" t="s">
+        <v>53</v>
+      </c>
+      <c r="E294" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="470">
   <si>
     <t>DATE</t>
   </si>
@@ -1387,6 +1387,45 @@
   </si>
   <si>
     <t>DL8CZ9531</t>
+  </si>
+  <si>
+    <t>KA51MN2772</t>
+  </si>
+  <si>
+    <t>MP50BC8265</t>
+  </si>
+  <si>
+    <t>HEAD LIGHT BULB CHANGE</t>
+  </si>
+  <si>
+    <t>KA50P8555</t>
+  </si>
+  <si>
+    <t>KA03AD4806</t>
+  </si>
+  <si>
+    <t>BRAKE DISC CHANGE</t>
+  </si>
+  <si>
+    <t>KA03MS5800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMS  </t>
+  </si>
+  <si>
+    <t>PIPE CHANGE</t>
+  </si>
+  <si>
+    <t>KA25P8050</t>
+  </si>
+  <si>
+    <t>NANO</t>
+  </si>
+  <si>
+    <t>KA03MJ4740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA03NA8797 </t>
   </si>
 </sst>
 </file>
@@ -1394,12 +1433,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1411,6 +1450,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1418,14 +1464,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1434,13 +1489,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1471,7 +1519,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1494,26 +1557,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1526,15 +1573,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1548,7 +1587,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,7 +1602,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1575,37 +1626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1623,7 +1656,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,55 +1722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1695,13 +1746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1713,13 +1764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,19 +1782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1757,17 +1796,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1787,15 +1831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1811,22 +1846,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,6 +1879,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1857,148 +1896,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2007,9 +2046,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2361,10 +2400,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G294"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="E294" sqref="E294"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8226,6 +8265,215 @@
       </c>
       <c r="E294" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B295" t="s">
+        <v>457</v>
+      </c>
+      <c r="C295" t="s">
+        <v>222</v>
+      </c>
+      <c r="D295" t="s">
+        <v>347</v>
+      </c>
+      <c r="E295" t="s">
+        <v>28</v>
+      </c>
+      <c r="F295" s="3">
+        <v>38000</v>
+      </c>
+      <c r="G295" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B296" t="s">
+        <v>458</v>
+      </c>
+      <c r="C296" t="s">
+        <v>12</v>
+      </c>
+      <c r="D296" t="s">
+        <v>459</v>
+      </c>
+      <c r="E296" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" s="3">
+        <v>1020</v>
+      </c>
+      <c r="G296" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B297" t="s">
+        <v>460</v>
+      </c>
+      <c r="C297" t="s">
+        <v>81</v>
+      </c>
+      <c r="D297" t="s">
+        <v>37</v>
+      </c>
+      <c r="E297" t="s">
+        <v>229</v>
+      </c>
+      <c r="F297" s="3">
+        <v>11308</v>
+      </c>
+      <c r="G297" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B298" t="s">
+        <v>461</v>
+      </c>
+      <c r="C298" t="s">
+        <v>131</v>
+      </c>
+      <c r="D298" t="s">
+        <v>462</v>
+      </c>
+      <c r="E298" t="s">
+        <v>28</v>
+      </c>
+      <c r="F298" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G298" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B299" t="s">
+        <v>463</v>
+      </c>
+      <c r="C299" t="s">
+        <v>98</v>
+      </c>
+      <c r="D299" t="s">
+        <v>464</v>
+      </c>
+      <c r="E299" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B300" t="s">
+        <v>421</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="s">
+        <v>465</v>
+      </c>
+      <c r="E300" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B301" t="s">
+        <v>466</v>
+      </c>
+      <c r="C301" t="s">
+        <v>467</v>
+      </c>
+      <c r="D301" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B302" t="s">
+        <v>468</v>
+      </c>
+      <c r="C302" t="s">
+        <v>273</v>
+      </c>
+      <c r="D302" t="s">
+        <v>138</v>
+      </c>
+      <c r="E302" t="s">
+        <v>28</v>
+      </c>
+      <c r="F302" s="3">
+        <v>3233</v>
+      </c>
+      <c r="G302" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B303" t="s">
+        <v>469</v>
+      </c>
+      <c r="C303" t="s">
+        <v>306</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
+        <v>28</v>
+      </c>
+      <c r="F303" s="3">
+        <v>11389</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="2">
+        <v>44795</v>
+      </c>
+      <c r="B304" t="s">
+        <v>455</v>
+      </c>
+      <c r="C304" t="s">
+        <v>149</v>
+      </c>
+      <c r="D304" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" t="s">
+        <v>28</v>
+      </c>
+      <c r="F304" s="3">
+        <v>4494</v>
+      </c>
+      <c r="G304" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="475">
   <si>
     <t>DATE</t>
   </si>
@@ -1426,6 +1426,21 @@
   </si>
   <si>
     <t xml:space="preserve">KA03NA8797 </t>
+  </si>
+  <si>
+    <t>KA04MM4818</t>
+  </si>
+  <si>
+    <t>KA03MB5345</t>
+  </si>
+  <si>
+    <t>KA05NA0487</t>
+  </si>
+  <si>
+    <t>KA51MF0652</t>
+  </si>
+  <si>
+    <t>BODY POLISHING</t>
   </si>
 </sst>
 </file>
@@ -1433,12 +1448,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1449,8 +1464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1458,6 +1474,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1475,22 +1506,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1519,22 +1534,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1556,6 +1556,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1571,23 +1586,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1602,19 +1617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,19 +1641,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,13 +1677,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,19 +1779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,85 +1791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,56 +1808,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1880,7 +1845,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1893,61 +1888,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1956,88 +1971,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2046,9 +2061,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2400,10 +2415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="H309" sqref="H309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8473,6 +8488,109 @@
         <v>4494</v>
       </c>
       <c r="G304" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B305" t="s">
+        <v>470</v>
+      </c>
+      <c r="C305" t="s">
+        <v>116</v>
+      </c>
+      <c r="D305" t="s">
+        <v>368</v>
+      </c>
+      <c r="E305" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B306" t="s">
+        <v>471</v>
+      </c>
+      <c r="C306" t="s">
+        <v>261</v>
+      </c>
+      <c r="D306" t="s">
+        <v>42</v>
+      </c>
+      <c r="E306" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B307" t="s">
+        <v>472</v>
+      </c>
+      <c r="C307" t="s">
+        <v>149</v>
+      </c>
+      <c r="D307" t="s">
+        <v>37</v>
+      </c>
+      <c r="E307" t="s">
+        <v>229</v>
+      </c>
+      <c r="F307" s="3">
+        <v>31604</v>
+      </c>
+      <c r="G307" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B308" t="s">
+        <v>429</v>
+      </c>
+      <c r="C308" t="s">
+        <v>251</v>
+      </c>
+      <c r="D308" t="s">
+        <v>42</v>
+      </c>
+      <c r="E308" t="s">
+        <v>28</v>
+      </c>
+      <c r="F308" s="3">
+        <v>32292</v>
+      </c>
+      <c r="G308" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="2">
+        <v>44796</v>
+      </c>
+      <c r="B309" t="s">
+        <v>473</v>
+      </c>
+      <c r="C309" t="s">
+        <v>87</v>
+      </c>
+      <c r="D309" t="s">
+        <v>474</v>
+      </c>
+      <c r="E309" t="s">
+        <v>28</v>
+      </c>
+      <c r="F309" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G309" t="s">
         <v>274</v>
       </c>
     </row>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="479">
   <si>
     <t>DATE</t>
   </si>
@@ -1441,6 +1441,18 @@
   </si>
   <si>
     <t>BODY POLISHING</t>
+  </si>
+  <si>
+    <t>KA03MS2872</t>
+  </si>
+  <si>
+    <t>KA06Z3574</t>
+  </si>
+  <si>
+    <t>KA50M1697</t>
+  </si>
+  <si>
+    <t>VCMC</t>
   </si>
 </sst>
 </file>
@@ -1448,12 +1460,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1464,9 +1476,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,22 +1499,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,18 +1530,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1556,8 +1567,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1573,36 +1614,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1617,7 +1629,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,97 +1791,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1731,73 +1809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1808,6 +1820,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1843,63 +1912,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1911,49 +1923,49 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1965,94 +1977,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2061,9 +2073,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2415,10 +2427,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G309"/>
+  <dimension ref="A1:G313"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="H309" sqref="H309"/>
+      <selection activeCell="G313" sqref="G313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8508,7 +8520,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:6">
       <c r="A306" s="2">
         <v>44796</v>
       </c>
@@ -8523,6 +8535,9 @@
       </c>
       <c r="E306" t="s">
         <v>336</v>
+      </c>
+      <c r="F306" s="3">
+        <v>6000</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8592,6 +8607,86 @@
       </c>
       <c r="G309" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B310" t="s">
+        <v>475</v>
+      </c>
+      <c r="C310" t="s">
+        <v>355</v>
+      </c>
+      <c r="D310" t="s">
+        <v>138</v>
+      </c>
+      <c r="E310" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B311" t="s">
+        <v>476</v>
+      </c>
+      <c r="C311" t="s">
+        <v>15</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>28</v>
+      </c>
+      <c r="F311" s="3">
+        <v>3627</v>
+      </c>
+      <c r="G311" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B312" t="s">
+        <v>477</v>
+      </c>
+      <c r="C312" t="s">
+        <v>207</v>
+      </c>
+      <c r="D312" t="s">
+        <v>478</v>
+      </c>
+      <c r="E312" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B313" t="s">
+        <v>470</v>
+      </c>
+      <c r="C313" t="s">
+        <v>116</v>
+      </c>
+      <c r="D313" t="s">
+        <v>368</v>
+      </c>
+      <c r="E313" t="s">
+        <v>28</v>
+      </c>
+      <c r="F313" s="3">
+        <v>1945</v>
+      </c>
+      <c r="G313" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="489">
   <si>
     <t>DATE</t>
   </si>
@@ -1453,6 +1453,36 @@
   </si>
   <si>
     <t>VCMC</t>
+  </si>
+  <si>
+    <t>KL01CF1995</t>
+  </si>
+  <si>
+    <t>TIGOR</t>
+  </si>
+  <si>
+    <t>KA01MK8821</t>
+  </si>
+  <si>
+    <t>KA03MM9548</t>
+  </si>
+  <si>
+    <t>KA01MF2461</t>
+  </si>
+  <si>
+    <t>KL05AP981</t>
+  </si>
+  <si>
+    <t>KWDI</t>
+  </si>
+  <si>
+    <t>PARTS</t>
+  </si>
+  <si>
+    <t>KA51N2602</t>
+  </si>
+  <si>
+    <t>TIE LAMP CHANGE</t>
   </si>
 </sst>
 </file>
@@ -1460,12 +1490,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1477,7 +1507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1485,14 +1515,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1507,23 +1545,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,7 +1568,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1568,6 +1606,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1576,29 +1622,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1612,9 +1636,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1629,13 +1659,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,169 +1833,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,9 +1855,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1871,30 +1918,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1912,159 +1935,166 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2073,9 +2103,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2427,10 +2457,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G313"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="G313" sqref="G313"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8687,6 +8717,224 @@
       </c>
       <c r="G313" t="s">
         <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B314" t="s">
+        <v>479</v>
+      </c>
+      <c r="C314" t="s">
+        <v>480</v>
+      </c>
+      <c r="D314" t="s">
+        <v>76</v>
+      </c>
+      <c r="E314" t="s">
+        <v>28</v>
+      </c>
+      <c r="F314" s="3">
+        <v>550</v>
+      </c>
+      <c r="G314" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B315" t="s">
+        <v>481</v>
+      </c>
+      <c r="C315" t="s">
+        <v>44</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B316" t="s">
+        <v>482</v>
+      </c>
+      <c r="C316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B317" t="s">
+        <v>483</v>
+      </c>
+      <c r="C317" t="s">
+        <v>128</v>
+      </c>
+      <c r="D317" t="s">
+        <v>138</v>
+      </c>
+      <c r="E317" t="s">
+        <v>28</v>
+      </c>
+      <c r="F317" s="3">
+        <v>2159</v>
+      </c>
+      <c r="G317" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B318" t="s">
+        <v>458</v>
+      </c>
+      <c r="C318" t="s">
+        <v>12</v>
+      </c>
+      <c r="D318" t="s">
+        <v>76</v>
+      </c>
+      <c r="E318" t="s">
+        <v>28</v>
+      </c>
+      <c r="F318" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G318" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B319" t="s">
+        <v>484</v>
+      </c>
+      <c r="C319" t="s">
+        <v>485</v>
+      </c>
+      <c r="D319" t="s">
+        <v>486</v>
+      </c>
+      <c r="E319" t="s">
+        <v>28</v>
+      </c>
+      <c r="F319" s="3">
+        <v>2798</v>
+      </c>
+      <c r="G319" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B320" t="s">
+        <v>487</v>
+      </c>
+      <c r="C320" t="s">
+        <v>102</v>
+      </c>
+      <c r="D320" t="s">
+        <v>67</v>
+      </c>
+      <c r="E320" t="s">
+        <v>28</v>
+      </c>
+      <c r="F320" s="3">
+        <v>367</v>
+      </c>
+      <c r="G320" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B321" t="s">
+        <v>475</v>
+      </c>
+      <c r="C321" t="s">
+        <v>355</v>
+      </c>
+      <c r="D321" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s">
+        <v>28</v>
+      </c>
+      <c r="F321" s="3">
+        <v>18582</v>
+      </c>
+      <c r="G321" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B322" t="s">
+        <v>362</v>
+      </c>
+      <c r="C322" t="s">
+        <v>87</v>
+      </c>
+      <c r="D322" t="s">
+        <v>488</v>
+      </c>
+      <c r="E322" t="s">
+        <v>28</v>
+      </c>
+      <c r="F322" s="3">
+        <v>4318</v>
+      </c>
+      <c r="G322" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="2">
+        <v>44799</v>
+      </c>
+      <c r="B323" t="s">
+        <v>481</v>
+      </c>
+      <c r="C323" t="s">
+        <v>44</v>
+      </c>
+      <c r="D323" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" t="s">
+        <v>28</v>
+      </c>
+      <c r="F323" s="3">
+        <v>4356</v>
+      </c>
+      <c r="G323" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="496">
   <si>
     <t>DATE</t>
   </si>
@@ -1483,6 +1483,27 @@
   </si>
   <si>
     <t>TIE LAMP CHANGE</t>
+  </si>
+  <si>
+    <t>KL53B6017</t>
+  </si>
+  <si>
+    <t>MP07CC7868</t>
+  </si>
+  <si>
+    <t>BUMPER DENTING</t>
+  </si>
+  <si>
+    <t>KA03MF0391</t>
+  </si>
+  <si>
+    <t>KA51ML1533</t>
+  </si>
+  <si>
+    <t>KA53MD6290</t>
+  </si>
+  <si>
+    <t>PART SEALS     WW</t>
   </si>
 </sst>
 </file>
@@ -1490,17 +1511,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1513,24 +1542,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,14 +1581,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1568,7 +1589,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1582,10 +1603,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1605,24 +1627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,14 +1643,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1659,13 +1680,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,25 +1776,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,7 +1794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1719,67 +1812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,25 +1830,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,19 +1848,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,26 +1876,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,15 +1894,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1942,6 +1937,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1950,52 +1960,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2004,97 +2025,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2103,9 +2124,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2457,10 +2478,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G323"/>
+  <dimension ref="A1:G331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="F320" sqref="F320"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="H329" sqref="H329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -8934,6 +8955,178 @@
         <v>4356</v>
       </c>
       <c r="G323" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B324" t="s">
+        <v>489</v>
+      </c>
+      <c r="C324" t="s">
+        <v>81</v>
+      </c>
+      <c r="D324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>28</v>
+      </c>
+      <c r="F324" s="3">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B325" t="s">
+        <v>490</v>
+      </c>
+      <c r="C325" t="s">
+        <v>415</v>
+      </c>
+      <c r="D325" t="s">
+        <v>491</v>
+      </c>
+      <c r="E325" t="s">
+        <v>28</v>
+      </c>
+      <c r="F325" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G325" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B326" t="s">
+        <v>492</v>
+      </c>
+      <c r="C326" t="s">
+        <v>33</v>
+      </c>
+      <c r="D326" t="s">
+        <v>37</v>
+      </c>
+      <c r="E326" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B327" t="s">
+        <v>493</v>
+      </c>
+      <c r="C327" t="s">
+        <v>125</v>
+      </c>
+      <c r="D327" t="s">
+        <v>491</v>
+      </c>
+      <c r="E327" t="s">
+        <v>28</v>
+      </c>
+      <c r="F327" s="3">
+        <v>800</v>
+      </c>
+      <c r="G327" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B328" t="s">
+        <v>423</v>
+      </c>
+      <c r="C328" t="s">
+        <v>18</v>
+      </c>
+      <c r="D328" t="s">
+        <v>64</v>
+      </c>
+      <c r="E328" t="s">
+        <v>28</v>
+      </c>
+      <c r="F328" s="3">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B329" t="s">
+        <v>447</v>
+      </c>
+      <c r="C329" t="s">
+        <v>63</v>
+      </c>
+      <c r="D329" t="s">
+        <v>448</v>
+      </c>
+      <c r="E329" t="s">
+        <v>28</v>
+      </c>
+      <c r="F329" s="3">
+        <v>700</v>
+      </c>
+      <c r="G329" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B330" t="s">
+        <v>494</v>
+      </c>
+      <c r="C330" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330" t="s">
+        <v>495</v>
+      </c>
+      <c r="E330" t="s">
+        <v>28</v>
+      </c>
+      <c r="F330" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G330" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B331" t="s">
+        <v>482</v>
+      </c>
+      <c r="C331" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>28</v>
+      </c>
+      <c r="F331" s="3">
+        <v>5561</v>
+      </c>
+      <c r="G331" t="s">
         <v>274</v>
       </c>
     </row>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="514">
   <si>
     <t>DATE</t>
   </si>
@@ -1504,6 +1504,60 @@
   </si>
   <si>
     <t>PART SEALS     WW</t>
+  </si>
+  <si>
+    <t>KA03MQ5513</t>
+  </si>
+  <si>
+    <t>GEAR SWIFTING PROBLEM</t>
+  </si>
+  <si>
+    <t>KA04MN7120</t>
+  </si>
+  <si>
+    <t>KA41P3439</t>
+  </si>
+  <si>
+    <t>NEW VERNA</t>
+  </si>
+  <si>
+    <t>KA01ML2754</t>
+  </si>
+  <si>
+    <t>KA03MU6336</t>
+  </si>
+  <si>
+    <t>KA03MS1179</t>
+  </si>
+  <si>
+    <t>KA53N7601</t>
+  </si>
+  <si>
+    <t>FUEL PIPE CHANGE</t>
+  </si>
+  <si>
+    <t>KA05MJ6661</t>
+  </si>
+  <si>
+    <t>KA53Z9119</t>
+  </si>
+  <si>
+    <t>FENDER LINING CHANGE</t>
+  </si>
+  <si>
+    <t>KA02MA7199</t>
+  </si>
+  <si>
+    <t>KA03ND8314</t>
+  </si>
+  <si>
+    <t>KA03MT5176</t>
+  </si>
+  <si>
+    <t>KA03MM7095</t>
+  </si>
+  <si>
+    <t>HONDA JAZZ</t>
   </si>
 </sst>
 </file>
@@ -1511,12 +1565,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1527,39 +1581,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1574,7 +1597,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1589,25 +1628,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1627,16 +1657,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1650,7 +1689,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1665,7 +1719,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1680,19 +1734,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,7 +1770,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1716,31 +1806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1758,31 +1824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,7 +1854,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1806,61 +1914,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,15 +1925,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1898,6 +1943,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1909,6 +1963,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,50 +2020,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1983,139 +2043,133 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2124,9 +2178,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2478,10 +2532,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G331"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="H329" sqref="H329"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="H345" sqref="H345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -9128,6 +9182,277 @@
       </c>
       <c r="G331" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B332" t="s">
+        <v>496</v>
+      </c>
+      <c r="C332" t="s">
+        <v>273</v>
+      </c>
+      <c r="D332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>28</v>
+      </c>
+      <c r="F332" s="3">
+        <v>5558</v>
+      </c>
+      <c r="G332" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B333" t="s">
+        <v>392</v>
+      </c>
+      <c r="C333" t="s">
+        <v>81</v>
+      </c>
+      <c r="D333" t="s">
+        <v>497</v>
+      </c>
+      <c r="E333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B334" t="s">
+        <v>498</v>
+      </c>
+      <c r="C334" t="s">
+        <v>286</v>
+      </c>
+      <c r="D334" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" t="s">
+        <v>28</v>
+      </c>
+      <c r="F334" s="3">
+        <v>8095</v>
+      </c>
+      <c r="G334" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B335" t="s">
+        <v>499</v>
+      </c>
+      <c r="C335" t="s">
+        <v>500</v>
+      </c>
+      <c r="D335" t="s">
+        <v>76</v>
+      </c>
+      <c r="E335" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B336" t="s">
+        <v>501</v>
+      </c>
+      <c r="C336" t="s">
+        <v>44</v>
+      </c>
+      <c r="D336" t="s">
+        <v>76</v>
+      </c>
+      <c r="E336" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B337" t="s">
+        <v>502</v>
+      </c>
+      <c r="C337" t="s">
+        <v>273</v>
+      </c>
+      <c r="D337" t="s">
+        <v>126</v>
+      </c>
+      <c r="E337" t="s">
+        <v>28</v>
+      </c>
+      <c r="F337" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G337" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B338" t="s">
+        <v>503</v>
+      </c>
+      <c r="C338" t="s">
+        <v>180</v>
+      </c>
+      <c r="D338" t="s">
+        <v>76</v>
+      </c>
+      <c r="E338" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>44802</v>
+      </c>
+      <c r="B339" t="s">
+        <v>504</v>
+      </c>
+      <c r="C339" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" t="s">
+        <v>505</v>
+      </c>
+      <c r="E339" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B340" t="s">
+        <v>506</v>
+      </c>
+      <c r="C340" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340" t="s">
+        <v>37</v>
+      </c>
+      <c r="E340" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B341" t="s">
+        <v>507</v>
+      </c>
+      <c r="C341" t="s">
+        <v>81</v>
+      </c>
+      <c r="D341" t="s">
+        <v>508</v>
+      </c>
+      <c r="E341" t="s">
+        <v>28</v>
+      </c>
+      <c r="F341" s="3">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B342" t="s">
+        <v>509</v>
+      </c>
+      <c r="C342" t="s">
+        <v>302</v>
+      </c>
+      <c r="D342" t="s">
+        <v>310</v>
+      </c>
+      <c r="E342" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B343" t="s">
+        <v>510</v>
+      </c>
+      <c r="C343" t="s">
+        <v>89</v>
+      </c>
+      <c r="D343" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>28</v>
+      </c>
+      <c r="F343" s="3">
+        <v>12158</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B344" t="s">
+        <v>511</v>
+      </c>
+      <c r="C344" t="s">
+        <v>55</v>
+      </c>
+      <c r="D344" t="s">
+        <v>42</v>
+      </c>
+      <c r="E344" t="s">
+        <v>28</v>
+      </c>
+      <c r="F344" s="3">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B345" t="s">
+        <v>512</v>
+      </c>
+      <c r="C345" t="s">
+        <v>513</v>
+      </c>
+      <c r="D345" t="s">
+        <v>9</v>
+      </c>
+      <c r="E345" t="s">
+        <v>28</v>
+      </c>
+      <c r="F345" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G345" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="517">
   <si>
     <t>DATE</t>
   </si>
@@ -1558,6 +1558,15 @@
   </si>
   <si>
     <t>HONDA JAZZ</t>
+  </si>
+  <si>
+    <t>KA03MS4131</t>
+  </si>
+  <si>
+    <t>KA03MQ6297</t>
+  </si>
+  <si>
+    <t>KA03ML5436</t>
   </si>
 </sst>
 </file>
@@ -1565,10 +1574,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
@@ -1582,14 +1591,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1613,6 +1622,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1624,13 +1641,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1673,9 +1683,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1683,20 +1699,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,6 +1712,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1717,9 +1727,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1734,13 +1743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,13 +1755,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,7 +1833,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,55 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,73 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,6 +1934,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1976,32 +2000,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2019,6 +2017,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2028,19 +2037,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2049,28 +2058,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2079,97 +2088,97 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2532,10 +2541,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="H345" sqref="H345"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="E346" sqref="E346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -9453,6 +9462,135 @@
       </c>
       <c r="G345" t="s">
         <v>287</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B346" t="s">
+        <v>477</v>
+      </c>
+      <c r="C346" t="s">
+        <v>207</v>
+      </c>
+      <c r="D346" t="s">
+        <v>9</v>
+      </c>
+      <c r="E346" t="s">
+        <v>28</v>
+      </c>
+      <c r="F346" s="3">
+        <v>19771</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B347" t="s">
+        <v>514</v>
+      </c>
+      <c r="C347" t="s">
+        <v>207</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" t="s">
+        <v>28</v>
+      </c>
+      <c r="F347" s="3">
+        <v>4283</v>
+      </c>
+      <c r="G347" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B348" t="s">
+        <v>501</v>
+      </c>
+      <c r="C348" t="s">
+        <v>44</v>
+      </c>
+      <c r="D348" t="s">
+        <v>76</v>
+      </c>
+      <c r="E348" t="s">
+        <v>28</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1850</v>
+      </c>
+      <c r="G348" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="2">
+        <v>44774</v>
+      </c>
+      <c r="B349" t="s">
+        <v>515</v>
+      </c>
+      <c r="C349" t="s">
+        <v>104</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>28</v>
+      </c>
+      <c r="F349" s="3">
+        <v>4322</v>
+      </c>
+      <c r="G349" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B350" t="s">
+        <v>509</v>
+      </c>
+      <c r="C350" t="s">
+        <v>302</v>
+      </c>
+      <c r="D350" t="s">
+        <v>76</v>
+      </c>
+      <c r="E350" t="s">
+        <v>28</v>
+      </c>
+      <c r="F350" s="3">
+        <v>400</v>
+      </c>
+      <c r="G350" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B351" t="s">
+        <v>516</v>
+      </c>
+      <c r="C351" t="s">
+        <v>213</v>
+      </c>
+      <c r="D351" t="s">
+        <v>368</v>
+      </c>
+      <c r="E351" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="537">
   <si>
     <t>DATE</t>
   </si>
@@ -1567,6 +1567,66 @@
   </si>
   <si>
     <t>KA03ML5436</t>
+  </si>
+  <si>
+    <t>HP63C1093</t>
+  </si>
+  <si>
+    <t>TN14P4378</t>
+  </si>
+  <si>
+    <t>KL43B1476</t>
+  </si>
+  <si>
+    <t>KA03MU8528</t>
+  </si>
+  <si>
+    <t>KA53MA1192</t>
+  </si>
+  <si>
+    <t>JH09F7221</t>
+  </si>
+  <si>
+    <t>KA10M2591</t>
+  </si>
+  <si>
+    <t>CLUTCH PROBLEM  &amp; PMS</t>
+  </si>
+  <si>
+    <t>KA02AF2947</t>
+  </si>
+  <si>
+    <t>KA11B6109</t>
+  </si>
+  <si>
+    <t>KL49E1440</t>
+  </si>
+  <si>
+    <t>GEAR STEERING CHANGE</t>
+  </si>
+  <si>
+    <t>UP14CK8538</t>
+  </si>
+  <si>
+    <t>SAEL</t>
+  </si>
+  <si>
+    <t>KA22P5434</t>
+  </si>
+  <si>
+    <t>KA03NA2866</t>
+  </si>
+  <si>
+    <t>KA53N2941</t>
+  </si>
+  <si>
+    <t>CAMRY</t>
+  </si>
+  <si>
+    <t>KA03MZ2202</t>
+  </si>
+  <si>
+    <t>AUDI A4</t>
   </si>
 </sst>
 </file>
@@ -1576,8 +1636,8 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
@@ -1604,6 +1664,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1620,17 +1710,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1641,6 +1722,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1656,6 +1745,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1684,20 +1780,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1706,29 +1788,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1743,55 +1803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1809,13 +1827,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,7 +1881,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,85 +1977,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1937,17 +1997,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1963,15 +2043,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,6 +2065,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2001,43 +2081,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2046,139 +2106,139 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2541,10 +2601,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G351"/>
+  <dimension ref="A1:G368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="E346" sqref="E346"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="H368" sqref="H368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -9591,6 +9651,343 @@
       </c>
       <c r="E351" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B352" t="s">
+        <v>517</v>
+      </c>
+      <c r="C352" t="s">
+        <v>343</v>
+      </c>
+      <c r="D352" t="s">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s">
+        <v>28</v>
+      </c>
+      <c r="F352" s="3">
+        <v>7335</v>
+      </c>
+      <c r="G352" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B353" t="s">
+        <v>466</v>
+      </c>
+      <c r="C353" t="s">
+        <v>467</v>
+      </c>
+      <c r="D353" t="s">
+        <v>59</v>
+      </c>
+      <c r="E353" t="s">
+        <v>28</v>
+      </c>
+      <c r="F353" s="3">
+        <v>6914</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B354" t="s">
+        <v>518</v>
+      </c>
+      <c r="C354" t="s">
+        <v>63</v>
+      </c>
+      <c r="D354" t="s">
+        <v>111</v>
+      </c>
+      <c r="E354" t="s">
+        <v>28</v>
+      </c>
+      <c r="F354" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G354" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B355" t="s">
+        <v>519</v>
+      </c>
+      <c r="C355" t="s">
+        <v>27</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B356" t="s">
+        <v>520</v>
+      </c>
+      <c r="C356" t="s">
+        <v>89</v>
+      </c>
+      <c r="D356" t="s">
+        <v>37</v>
+      </c>
+      <c r="E356" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B357" t="s">
+        <v>521</v>
+      </c>
+      <c r="C357" t="s">
+        <v>278</v>
+      </c>
+      <c r="D357" t="s">
+        <v>347</v>
+      </c>
+      <c r="E357" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>44777</v>
+      </c>
+      <c r="B358" t="s">
+        <v>522</v>
+      </c>
+      <c r="C358" t="s">
+        <v>89</v>
+      </c>
+      <c r="D358" t="s">
+        <v>59</v>
+      </c>
+      <c r="E358" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>44808</v>
+      </c>
+      <c r="B359" t="s">
+        <v>523</v>
+      </c>
+      <c r="C359" t="s">
+        <v>18</v>
+      </c>
+      <c r="D359" t="s">
+        <v>524</v>
+      </c>
+      <c r="E359" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B360" t="s">
+        <v>525</v>
+      </c>
+      <c r="C360" t="s">
+        <v>294</v>
+      </c>
+      <c r="D360" t="s">
+        <v>440</v>
+      </c>
+      <c r="E360" t="s">
+        <v>28</v>
+      </c>
+      <c r="F360" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G360" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B361" t="s">
+        <v>526</v>
+      </c>
+      <c r="C361" t="s">
+        <v>320</v>
+      </c>
+      <c r="D361" t="s">
+        <v>440</v>
+      </c>
+      <c r="E361" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B362" t="s">
+        <v>527</v>
+      </c>
+      <c r="C362" t="s">
+        <v>286</v>
+      </c>
+      <c r="D362" t="s">
+        <v>528</v>
+      </c>
+      <c r="E362" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B363" t="s">
+        <v>529</v>
+      </c>
+      <c r="C363" t="s">
+        <v>530</v>
+      </c>
+      <c r="D363" t="s">
+        <v>37</v>
+      </c>
+      <c r="E363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B364" t="s">
+        <v>531</v>
+      </c>
+      <c r="C364" t="s">
+        <v>95</v>
+      </c>
+      <c r="D364" t="s">
+        <v>67</v>
+      </c>
+      <c r="E364" t="s">
+        <v>28</v>
+      </c>
+      <c r="F364" s="3">
+        <v>820</v>
+      </c>
+      <c r="G364" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B365" t="s">
+        <v>516</v>
+      </c>
+      <c r="C365" t="s">
+        <v>213</v>
+      </c>
+      <c r="D365" t="s">
+        <v>42</v>
+      </c>
+      <c r="E365" t="s">
+        <v>28</v>
+      </c>
+      <c r="F365" s="3">
+        <v>5113</v>
+      </c>
+      <c r="G365" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B366" t="s">
+        <v>532</v>
+      </c>
+      <c r="C366" t="s">
+        <v>18</v>
+      </c>
+      <c r="D366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" t="s">
+        <v>28</v>
+      </c>
+      <c r="F366" s="3">
+        <v>10244</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B367" t="s">
+        <v>533</v>
+      </c>
+      <c r="C367" t="s">
+        <v>534</v>
+      </c>
+      <c r="D367" t="s">
+        <v>85</v>
+      </c>
+      <c r="E367" t="s">
+        <v>28</v>
+      </c>
+      <c r="F367" s="3">
+        <v>2796</v>
+      </c>
+      <c r="G367" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B368" t="s">
+        <v>535</v>
+      </c>
+      <c r="C368" t="s">
+        <v>536</v>
+      </c>
+      <c r="D368" t="s">
+        <v>85</v>
+      </c>
+      <c r="E368" t="s">
+        <v>28</v>
+      </c>
+      <c r="F368" s="3">
+        <v>2950</v>
+      </c>
+      <c r="G368" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="548">
   <si>
     <t>DATE</t>
   </si>
@@ -1627,6 +1627,39 @@
   </si>
   <si>
     <t>AUDI A4</t>
+  </si>
+  <si>
+    <t>SUSPENSION AND PMS</t>
+  </si>
+  <si>
+    <t>KA04MM9589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWFIT </t>
+  </si>
+  <si>
+    <t>PMS AND CLUTCH PROBLEM</t>
+  </si>
+  <si>
+    <t>BATTERY CHANGE</t>
+  </si>
+  <si>
+    <t>KA51MC4931</t>
+  </si>
+  <si>
+    <t>I10 SPORTS</t>
+  </si>
+  <si>
+    <t>KA03MT1775</t>
+  </si>
+  <si>
+    <t>KA04MJ9206</t>
+  </si>
+  <si>
+    <t>CIVIC</t>
+  </si>
+  <si>
+    <t>BUMPER PAINTING</t>
   </si>
 </sst>
 </file>
@@ -1634,12 +1667,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1650,37 +1683,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,9 +1699,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,26 +1736,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1745,13 +1756,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1780,13 +1784,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1803,31 +1836,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1845,37 +1872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,7 +1890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1899,7 +1914,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1911,7 +1944,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1923,43 +1998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,18 +2020,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1994,17 +2027,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2019,15 +2041,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,8 +2078,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2094,13 +2107,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2109,136 +2145,133 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2247,9 +2280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2601,10 +2634,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G368"/>
+  <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="H368" sqref="H368"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="G377" sqref="G377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -9988,6 +10021,210 @@
       </c>
       <c r="G368" t="s">
         <v>315</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B369" t="s">
+        <v>425</v>
+      </c>
+      <c r="C369" t="s">
+        <v>156</v>
+      </c>
+      <c r="D369" t="s">
+        <v>537</v>
+      </c>
+      <c r="E369" t="s">
+        <v>28</v>
+      </c>
+      <c r="F369" s="3">
+        <v>74840</v>
+      </c>
+      <c r="G369" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B370" t="s">
+        <v>538</v>
+      </c>
+      <c r="C370" t="s">
+        <v>44</v>
+      </c>
+      <c r="D370" t="s">
+        <v>347</v>
+      </c>
+      <c r="E370" t="s">
+        <v>28</v>
+      </c>
+      <c r="F370" s="3">
+        <v>8676</v>
+      </c>
+      <c r="G370" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B371" t="s">
+        <v>522</v>
+      </c>
+      <c r="C371" t="s">
+        <v>539</v>
+      </c>
+      <c r="D371" t="s">
+        <v>59</v>
+      </c>
+      <c r="E371" t="s">
+        <v>28</v>
+      </c>
+      <c r="F371" s="3">
+        <v>9648</v>
+      </c>
+      <c r="G371" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B372" t="s">
+        <v>519</v>
+      </c>
+      <c r="C372" t="s">
+        <v>27</v>
+      </c>
+      <c r="D372" t="s">
+        <v>540</v>
+      </c>
+      <c r="E372" t="s">
+        <v>28</v>
+      </c>
+      <c r="F372" s="3">
+        <v>9581</v>
+      </c>
+      <c r="G372" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B373" t="s">
+        <v>466</v>
+      </c>
+      <c r="C373" t="s">
+        <v>467</v>
+      </c>
+      <c r="D373" t="s">
+        <v>541</v>
+      </c>
+      <c r="E373" t="s">
+        <v>229</v>
+      </c>
+      <c r="F373" s="3">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B374" t="s">
+        <v>542</v>
+      </c>
+      <c r="C374" t="s">
+        <v>543</v>
+      </c>
+      <c r="D374" t="s">
+        <v>9</v>
+      </c>
+      <c r="E374" t="s">
+        <v>28</v>
+      </c>
+      <c r="F374" s="3">
+        <v>5747</v>
+      </c>
+      <c r="G374" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B375" t="s">
+        <v>526</v>
+      </c>
+      <c r="C375" t="s">
+        <v>320</v>
+      </c>
+      <c r="D375" t="s">
+        <v>440</v>
+      </c>
+      <c r="E375" t="s">
+        <v>28</v>
+      </c>
+      <c r="F375" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G375" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B376" t="s">
+        <v>544</v>
+      </c>
+      <c r="C376" t="s">
+        <v>363</v>
+      </c>
+      <c r="D376" t="s">
+        <v>67</v>
+      </c>
+      <c r="E376" t="s">
+        <v>28</v>
+      </c>
+      <c r="F376" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G376" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B377" t="s">
+        <v>545</v>
+      </c>
+      <c r="C377" t="s">
+        <v>546</v>
+      </c>
+      <c r="D377" t="s">
+        <v>547</v>
+      </c>
+      <c r="E377" t="s">
+        <v>28</v>
+      </c>
+      <c r="F377" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G377" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="550">
   <si>
     <t>DATE</t>
   </si>
@@ -1660,6 +1660,12 @@
   </si>
   <si>
     <t>BUMPER PAINTING</t>
+  </si>
+  <si>
+    <t>KA51MB3247</t>
+  </si>
+  <si>
+    <t>TN39CA3496</t>
   </si>
 </sst>
 </file>
@@ -1667,12 +1673,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1683,9 +1689,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1699,9 +1704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1715,7 +1719,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1728,9 +1732,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1783,8 +1810,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1797,29 +1825,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1836,7 +1842,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1848,19 +1914,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1872,19 +1974,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1896,115 +2010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,7 +2022,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2045,6 +2051,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2056,6 +2071,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2079,16 +2103,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,168 +2133,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2280,9 +2286,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2634,10 +2640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G377"/>
+  <dimension ref="A1:G379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="G377" sqref="G377"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="G373" sqref="G373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -10115,7 +10121,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:7">
       <c r="A373" s="2">
         <v>44810</v>
       </c>
@@ -10129,10 +10135,13 @@
         <v>541</v>
       </c>
       <c r="E373" t="s">
-        <v>229</v>
+        <v>28</v>
       </c>
       <c r="F373" s="3">
         <v>4956</v>
+      </c>
+      <c r="G373" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10225,6 +10234,52 @@
       </c>
       <c r="G377" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B378" t="s">
+        <v>548</v>
+      </c>
+      <c r="C378" t="s">
+        <v>18</v>
+      </c>
+      <c r="D378" t="s">
+        <v>76</v>
+      </c>
+      <c r="E378" t="s">
+        <v>28</v>
+      </c>
+      <c r="F378" s="3">
+        <v>2298</v>
+      </c>
+      <c r="G378" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B379" t="s">
+        <v>549</v>
+      </c>
+      <c r="C379" t="s">
+        <v>215</v>
+      </c>
+      <c r="D379" t="s">
+        <v>76</v>
+      </c>
+      <c r="E379" t="s">
+        <v>28</v>
+      </c>
+      <c r="F379" s="3">
+        <v>4116</v>
+      </c>
+      <c r="G379" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="557">
   <si>
     <t>DATE</t>
   </si>
@@ -1666,6 +1666,27 @@
   </si>
   <si>
     <t>TN39CA3496</t>
+  </si>
+  <si>
+    <t>KA01MR9978</t>
+  </si>
+  <si>
+    <t>HONDA BRV</t>
+  </si>
+  <si>
+    <t>PAYTM</t>
+  </si>
+  <si>
+    <t>KL40C4910</t>
+  </si>
+  <si>
+    <t>KA19MB9767</t>
+  </si>
+  <si>
+    <t>KA51N252</t>
+  </si>
+  <si>
+    <t>KA03MK5127</t>
   </si>
 </sst>
 </file>
@@ -1674,11 +1695,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1690,7 +1711,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1698,21 +1719,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,15 +1763,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1802,24 +1824,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1842,31 +1863,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1878,19 +1893,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1902,7 +1917,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,13 +1941,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1938,13 +1995,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1956,61 +2007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,6 +2029,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2036,17 +2057,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2099,26 +2116,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2133,13 +2130,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2148,16 +2172,13 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2172,13 +2193,13 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2190,94 +2211,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2287,8 +2308,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2640,10 +2661,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G379"/>
+  <dimension ref="A1:G384"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="G373" sqref="G373"/>
+      <selection activeCell="H380" sqref="H380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -10280,6 +10301,121 @@
       </c>
       <c r="G379" t="s">
         <v>274</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B380" t="s">
+        <v>550</v>
+      </c>
+      <c r="C380" t="s">
+        <v>551</v>
+      </c>
+      <c r="D380" t="s">
+        <v>9</v>
+      </c>
+      <c r="E380" t="s">
+        <v>28</v>
+      </c>
+      <c r="F380" s="3">
+        <v>7415</v>
+      </c>
+      <c r="G380" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B381" t="s">
+        <v>553</v>
+      </c>
+      <c r="C381" t="s">
+        <v>261</v>
+      </c>
+      <c r="D381" t="s">
+        <v>9</v>
+      </c>
+      <c r="E381" t="s">
+        <v>28</v>
+      </c>
+      <c r="F381" s="3">
+        <v>3835</v>
+      </c>
+      <c r="G381" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B382" t="s">
+        <v>554</v>
+      </c>
+      <c r="C382" t="s">
+        <v>18</v>
+      </c>
+      <c r="D382" t="s">
+        <v>76</v>
+      </c>
+      <c r="E382" t="s">
+        <v>28</v>
+      </c>
+      <c r="F382" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G382" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B383" t="s">
+        <v>555</v>
+      </c>
+      <c r="C383" t="s">
+        <v>207</v>
+      </c>
+      <c r="D383" t="s">
+        <v>73</v>
+      </c>
+      <c r="E383" t="s">
+        <v>28</v>
+      </c>
+      <c r="F383" s="3">
+        <v>900</v>
+      </c>
+      <c r="G383" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B384" t="s">
+        <v>556</v>
+      </c>
+      <c r="C384" t="s">
+        <v>81</v>
+      </c>
+      <c r="D384" t="s">
+        <v>400</v>
+      </c>
+      <c r="E384" t="s">
+        <v>28</v>
+      </c>
+      <c r="F384" s="3">
+        <v>500</v>
+      </c>
+      <c r="G384" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="568">
   <si>
     <t>DATE</t>
   </si>
@@ -1687,6 +1687,39 @@
   </si>
   <si>
     <t>KA03MK5127</t>
+  </si>
+  <si>
+    <t>KA01AF1687</t>
+  </si>
+  <si>
+    <t>IN SIDE WATER</t>
+  </si>
+  <si>
+    <t>SAIL</t>
+  </si>
+  <si>
+    <t>TN64L3591</t>
+  </si>
+  <si>
+    <t>GEAR SIFTING PROBLEM</t>
+  </si>
+  <si>
+    <t>CH047319</t>
+  </si>
+  <si>
+    <t>U-VA</t>
+  </si>
+  <si>
+    <t>DL7CT5558</t>
+  </si>
+  <si>
+    <t>KA44M4582</t>
+  </si>
+  <si>
+    <t>KA51MM0003</t>
+  </si>
+  <si>
+    <t>JEEP COMPASS</t>
   </si>
 </sst>
 </file>
@@ -1694,12 +1727,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1711,7 +1744,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1725,16 +1787,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1742,36 +1805,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1800,14 +1834,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1825,22 +1851,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,6 +1867,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1863,19 +1896,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1887,43 +1938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,7 +1962,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1953,13 +2028,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,78 +2080,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2059,11 +2092,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,8 +2117,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2116,60 +2177,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2178,127 +2211,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2307,9 +2340,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2661,10 +2694,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G384"/>
+  <dimension ref="A1:G392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="H380" sqref="H380"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -10416,6 +10449,160 @@
       </c>
       <c r="G384" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B385" t="s">
+        <v>557</v>
+      </c>
+      <c r="C385" t="s">
+        <v>163</v>
+      </c>
+      <c r="D385" t="s">
+        <v>558</v>
+      </c>
+      <c r="E385" t="s">
+        <v>23</v>
+      </c>
+      <c r="F385" s="3">
+        <v>19470</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="2">
+        <v>44814</v>
+      </c>
+      <c r="B386" t="s">
+        <v>531</v>
+      </c>
+      <c r="C386" t="s">
+        <v>95</v>
+      </c>
+      <c r="D386" t="s">
+        <v>298</v>
+      </c>
+      <c r="E386" t="s">
+        <v>28</v>
+      </c>
+      <c r="F386" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G386" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B387" t="s">
+        <v>529</v>
+      </c>
+      <c r="C387" t="s">
+        <v>559</v>
+      </c>
+      <c r="D387" t="s">
+        <v>37</v>
+      </c>
+      <c r="E387" t="s">
+        <v>28</v>
+      </c>
+      <c r="F387" s="3">
+        <v>19470</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B388" t="s">
+        <v>560</v>
+      </c>
+      <c r="C388" t="s">
+        <v>242</v>
+      </c>
+      <c r="D388" t="s">
+        <v>561</v>
+      </c>
+      <c r="E388" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B389" t="s">
+        <v>562</v>
+      </c>
+      <c r="C389" t="s">
+        <v>563</v>
+      </c>
+      <c r="D389" t="s">
+        <v>37</v>
+      </c>
+      <c r="E389" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B390" t="s">
+        <v>564</v>
+      </c>
+      <c r="C390" t="s">
+        <v>207</v>
+      </c>
+      <c r="D390" t="s">
+        <v>59</v>
+      </c>
+      <c r="E390" t="s">
+        <v>28</v>
+      </c>
+      <c r="F390" s="3">
+        <v>17970</v>
+      </c>
+      <c r="G390" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B391" t="s">
+        <v>565</v>
+      </c>
+      <c r="C391" t="s">
+        <v>27</v>
+      </c>
+      <c r="D391" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B392" t="s">
+        <v>566</v>
+      </c>
+      <c r="C392" t="s">
+        <v>567</v>
+      </c>
+      <c r="D392" t="s">
+        <v>76</v>
+      </c>
+      <c r="E392" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="578">
   <si>
     <t>DATE</t>
   </si>
@@ -1720,6 +1720,36 @@
   </si>
   <si>
     <t>JEEP COMPASS</t>
+  </si>
+  <si>
+    <t>KA05MP4915</t>
+  </si>
+  <si>
+    <t>HAFT SAFT CHANGE</t>
+  </si>
+  <si>
+    <t>KA03MV0746</t>
+  </si>
+  <si>
+    <t>KA53P6612</t>
+  </si>
+  <si>
+    <t>ECM CHANGE</t>
+  </si>
+  <si>
+    <t>KA03NE7365</t>
+  </si>
+  <si>
+    <t>KA03MP9135</t>
+  </si>
+  <si>
+    <t>AP28D1658</t>
+  </si>
+  <si>
+    <t>KA35M1408</t>
+  </si>
+  <si>
+    <t>KA05M6661</t>
   </si>
 </sst>
 </file>
@@ -1728,10 +1758,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
@@ -1740,6 +1770,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1759,53 +1797,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,6 +1833,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1851,7 +1858,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1859,6 +1888,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1879,13 +1916,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1896,7 +1926,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1908,7 +2004,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1920,163 +2100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2087,54 +2117,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2179,6 +2161,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2190,148 +2220,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2340,7 +2370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2694,10 +2724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G392"/>
+  <dimension ref="A1:G400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
-      <selection activeCell="G390" sqref="G390"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="A401" sqref="A401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -10603,6 +10633,151 @@
       </c>
       <c r="E392" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B393" t="s">
+        <v>568</v>
+      </c>
+      <c r="C393" t="s">
+        <v>95</v>
+      </c>
+      <c r="D393" t="s">
+        <v>569</v>
+      </c>
+      <c r="E393" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B394" t="s">
+        <v>570</v>
+      </c>
+      <c r="C394" t="s">
+        <v>141</v>
+      </c>
+      <c r="D394" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B395" t="s">
+        <v>571</v>
+      </c>
+      <c r="C395" t="s">
+        <v>116</v>
+      </c>
+      <c r="D395" t="s">
+        <v>572</v>
+      </c>
+      <c r="E395" t="s">
+        <v>28</v>
+      </c>
+      <c r="F395" s="3">
+        <v>9500</v>
+      </c>
+      <c r="G395" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B396" t="s">
+        <v>573</v>
+      </c>
+      <c r="C396" t="s">
+        <v>72</v>
+      </c>
+      <c r="D396" t="s">
+        <v>37</v>
+      </c>
+      <c r="E396" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B397" t="s">
+        <v>574</v>
+      </c>
+      <c r="C397" t="s">
+        <v>104</v>
+      </c>
+      <c r="D397" t="s">
+        <v>37</v>
+      </c>
+      <c r="E397" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B398" t="s">
+        <v>575</v>
+      </c>
+      <c r="C398" t="s">
+        <v>261</v>
+      </c>
+      <c r="D398" t="s">
+        <v>37</v>
+      </c>
+      <c r="E398" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B399" t="s">
+        <v>576</v>
+      </c>
+      <c r="C399" t="s">
+        <v>191</v>
+      </c>
+      <c r="D399" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B400" t="s">
+        <v>577</v>
+      </c>
+      <c r="C400" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400" t="s">
+        <v>37</v>
+      </c>
+      <c r="E400" t="s">
+        <v>28</v>
+      </c>
+      <c r="F400" s="3">
+        <v>24056</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="587">
   <si>
     <t>DATE</t>
   </si>
@@ -1750,6 +1750,33 @@
   </si>
   <si>
     <t>KA05M6661</t>
+  </si>
+  <si>
+    <t>MH02AP8026</t>
+  </si>
+  <si>
+    <t>IKON</t>
+  </si>
+  <si>
+    <t>KA03NC7377</t>
+  </si>
+  <si>
+    <t>KA53MC3710</t>
+  </si>
+  <si>
+    <t>HR26CC3104</t>
+  </si>
+  <si>
+    <t>KA53M1408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA03MQ3773 </t>
+  </si>
+  <si>
+    <t>DRIVE SHAFT CHANGE</t>
+  </si>
+  <si>
+    <t>KA53MG5551</t>
   </si>
 </sst>
 </file>
@@ -1757,11 +1784,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
   </numFmts>
   <fonts count="20">
@@ -1770,6 +1797,51 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1782,14 +1854,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1798,21 +1863,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,44 +1908,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,7 +1924,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1926,91 +1953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2028,7 +1977,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2040,13 +2085,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,7 +2097,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2070,43 +2133,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2117,6 +2144,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2131,6 +2178,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2159,15 +2215,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2179,15 +2226,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2206,162 +2244,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2370,7 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2724,10 +2751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G400"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="A401" sqref="A401"/>
+    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
+      <selection activeCell="G409" sqref="G409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -10778,6 +10805,198 @@
       </c>
       <c r="F400" s="3">
         <v>24056</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B401" t="s">
+        <v>578</v>
+      </c>
+      <c r="C401" t="s">
+        <v>579</v>
+      </c>
+      <c r="D401" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" t="s">
+        <v>28</v>
+      </c>
+      <c r="F401" s="3">
+        <v>4427</v>
+      </c>
+      <c r="G401" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B402" t="s">
+        <v>580</v>
+      </c>
+      <c r="C402" t="s">
+        <v>44</v>
+      </c>
+      <c r="D402" t="s">
+        <v>42</v>
+      </c>
+      <c r="E402" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B403" t="s">
+        <v>581</v>
+      </c>
+      <c r="C403" t="s">
+        <v>266</v>
+      </c>
+      <c r="D403" t="s">
+        <v>9</v>
+      </c>
+      <c r="E403" t="s">
+        <v>28</v>
+      </c>
+      <c r="F403" s="3">
+        <v>6209</v>
+      </c>
+      <c r="G403" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B404" t="s">
+        <v>582</v>
+      </c>
+      <c r="C404" t="s">
+        <v>144</v>
+      </c>
+      <c r="D404" t="s">
+        <v>76</v>
+      </c>
+      <c r="E404" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B405" t="s">
+        <v>583</v>
+      </c>
+      <c r="C405" t="s">
+        <v>191</v>
+      </c>
+      <c r="D405" t="s">
+        <v>9</v>
+      </c>
+      <c r="E405" t="s">
+        <v>28</v>
+      </c>
+      <c r="F405" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G405" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B406" t="s">
+        <v>584</v>
+      </c>
+      <c r="C406" t="s">
+        <v>156</v>
+      </c>
+      <c r="D406" t="s">
+        <v>37</v>
+      </c>
+      <c r="E406" t="s">
+        <v>28</v>
+      </c>
+      <c r="F406" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G406" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B407" t="s">
+        <v>560</v>
+      </c>
+      <c r="C407" t="s">
+        <v>242</v>
+      </c>
+      <c r="D407" t="s">
+        <v>59</v>
+      </c>
+      <c r="E407" t="s">
+        <v>28</v>
+      </c>
+      <c r="F407" s="3">
+        <v>12750</v>
+      </c>
+      <c r="G407" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B408" t="s">
+        <v>568</v>
+      </c>
+      <c r="C408" t="s">
+        <v>95</v>
+      </c>
+      <c r="D408" t="s">
+        <v>585</v>
+      </c>
+      <c r="E408" t="s">
+        <v>28</v>
+      </c>
+      <c r="F408" s="3">
+        <v>14538</v>
+      </c>
+      <c r="G408" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B409" t="s">
+        <v>586</v>
+      </c>
+      <c r="C409" t="s">
+        <v>135</v>
+      </c>
+      <c r="D409" t="s">
+        <v>37</v>
+      </c>
+      <c r="E409" t="s">
+        <v>28</v>
+      </c>
+      <c r="F409" s="3">
+        <v>11000</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="602">
   <si>
     <t>DATE</t>
   </si>
@@ -1777,6 +1777,51 @@
   </si>
   <si>
     <t>KA53MG5551</t>
+  </si>
+  <si>
+    <t>AP09BX8688</t>
+  </si>
+  <si>
+    <t>KA03MU4168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KA05MR5725  </t>
+  </si>
+  <si>
+    <t>KA04MP1709</t>
+  </si>
+  <si>
+    <t>AUDI Q3</t>
+  </si>
+  <si>
+    <t>KA53C0964</t>
+  </si>
+  <si>
+    <t>TOUR S</t>
+  </si>
+  <si>
+    <t>KA53MD2318</t>
+  </si>
+  <si>
+    <t>MICRA</t>
+  </si>
+  <si>
+    <t>TN36AA0063</t>
+  </si>
+  <si>
+    <t>KA03MV2965</t>
+  </si>
+  <si>
+    <t>BRAKE LINING CHANGE</t>
+  </si>
+  <si>
+    <t>AP29AT0483</t>
+  </si>
+  <si>
+    <t>CAMPASS</t>
+  </si>
+  <si>
+    <t>ALTO K10</t>
   </si>
 </sst>
 </file>
@@ -1784,12 +1829,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-409]d/mmm/yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="&quot;₹&quot;#,##0;&quot;₹&quot;\-#,##0"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="[$-409]d/mmm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1802,9 +1847,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1815,39 +1860,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1863,6 +1877,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1907,16 +1944,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1932,6 +1969,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1953,37 +1998,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1995,7 +2016,7 @@
     </fill>
     <fill